--- a/Data/category1_data-clean-utf8.xlsx
+++ b/Data/category1_data-clean-utf8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\OneDrive\Documents\GitHub\ProductGraph\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\ProductGraph\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4F27E-B8E7-48E2-8898-967506ED61C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6743EAD8-B5CC-4DDE-B020-53288ADFF936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10217" uniqueCount="2875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10503" uniqueCount="2876">
   <si>
     <t>Column1</t>
   </si>
@@ -8662,6 +8662,9 @@
   </si>
   <si>
     <t>category_0_33_label</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -9996,318 +9999,318 @@
     <tableColumn id="2" xr3:uid="{BE8877ED-049C-4842-AEF8-F105A460B8E3}" uniqueName="2" name="index" queryTableFieldId="2"/>
     <tableColumn id="283" xr3:uid="{CC003839-C4E6-46FA-976A-3562C71525CD}" uniqueName="283" name="category_0_0_label" queryTableFieldId="283"/>
     <tableColumn id="3" xr3:uid="{1BDD8651-7A74-430C-8467-A8A5341BD2D0}" uniqueName="3" name="category_0_0" queryTableFieldId="3" dataDxfId="312"/>
-    <tableColumn id="284" xr3:uid="{AE643E56-F4E6-4D8B-B1D9-47772A0B877D}" uniqueName="284" name="category_0_1_label" queryTableFieldId="284" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{E18C7CFD-FB3A-4F63-B0F3-87F0B2133CD7}" uniqueName="4" name="category_0_1" queryTableFieldId="4" dataDxfId="311"/>
-    <tableColumn id="285" xr3:uid="{D0122D38-3773-4900-8D78-75A82D9DFF25}" uniqueName="285" name="category_0_2_label" queryTableFieldId="285" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{AC3F68D7-FD6F-4214-8114-CFA9C0ECC4E4}" uniqueName="5" name="category_0_2" queryTableFieldId="5" dataDxfId="310"/>
-    <tableColumn id="286" xr3:uid="{932E3BE4-F861-4C88-8127-78031CB05C81}" uniqueName="286" name="category_0_3_label" queryTableFieldId="286" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{DBCDAE10-1A33-4AFF-B71E-7C2B4CAEC10F}" uniqueName="6" name="category_0_3" queryTableFieldId="6" dataDxfId="309"/>
-    <tableColumn id="287" xr3:uid="{A980AA1D-FAB4-4209-88AF-61FDF45DC9F0}" uniqueName="287" name="category_0_4_label" queryTableFieldId="287" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{2175929B-0F7B-41FD-A463-4240A81185D6}" uniqueName="7" name="category_0_4" queryTableFieldId="7" dataDxfId="308"/>
-    <tableColumn id="288" xr3:uid="{71143BEF-8B44-4E1D-A5F4-9ECEE34CF0D4}" uniqueName="288" name="category_0_5_label" queryTableFieldId="288" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{D9A49BEE-EA69-4661-9430-3A1E927ADE56}" uniqueName="8" name="category_0_5" queryTableFieldId="8" dataDxfId="307"/>
-    <tableColumn id="289" xr3:uid="{2D62E196-62FA-40BE-AB54-15F595693A83}" uniqueName="289" name="category_0_6_label" queryTableFieldId="289" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{8E94B0AC-2994-4DCF-B15A-C95DDBB18677}" uniqueName="9" name="category_0_6" queryTableFieldId="9" dataDxfId="306"/>
-    <tableColumn id="290" xr3:uid="{E0B90B30-10EF-4310-A7E8-D38F1C6C15B1}" uniqueName="290" name="category_0_7_label" queryTableFieldId="290" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{BC8DAD55-DE38-4BF0-BD7E-CE02012DE3B2}" uniqueName="10" name="category_0_7" queryTableFieldId="10" dataDxfId="305"/>
-    <tableColumn id="291" xr3:uid="{F525B836-E077-495A-9A77-887B3925C623}" uniqueName="291" name="category_0_8_label" queryTableFieldId="291" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{6F62A5D8-9F66-45C4-B183-6C46746650AD}" uniqueName="11" name="category_0_8" queryTableFieldId="11" dataDxfId="304"/>
-    <tableColumn id="292" xr3:uid="{4AB38167-AB1F-4CBD-AFC0-8D7478741C55}" uniqueName="292" name="category_0_9_label" queryTableFieldId="292" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{57714491-AA14-4B43-B72D-E3809A29F854}" uniqueName="12" name="category_0_9" queryTableFieldId="12" dataDxfId="303"/>
-    <tableColumn id="293" xr3:uid="{F6E9920C-970D-4F39-B1E9-665A22F1EDD0}" uniqueName="293" name="category_0_10_label" queryTableFieldId="293" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{EB420C19-E31B-4C49-ABDF-7758DFA4DDC7}" uniqueName="13" name="category_0_10" queryTableFieldId="13" dataDxfId="302"/>
-    <tableColumn id="294" xr3:uid="{48AA2A75-F4C4-4698-A6EC-0A21E1C02BB0}" uniqueName="294" name="category_0_11_label" queryTableFieldId="294" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{D2C10B9D-67BC-49CC-8366-E40305D0CFE4}" uniqueName="14" name="category_0_11" queryTableFieldId="14" dataDxfId="301"/>
-    <tableColumn id="295" xr3:uid="{F202DED8-C90C-4012-A4CC-00B70AA8567D}" uniqueName="295" name="category_0_12_label" queryTableFieldId="295" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{51C02E08-DF2C-4DBB-B3D0-902A22774EC9}" uniqueName="15" name="category_0_12" queryTableFieldId="15" dataDxfId="300"/>
-    <tableColumn id="296" xr3:uid="{1BA179CE-CA2D-4060-9ACF-F7A461E73FF9}" uniqueName="296" name="category_0_13_label" queryTableFieldId="296" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{0739E101-B91A-4D21-A05B-FBF877AD0B37}" uniqueName="16" name="category_0_13" queryTableFieldId="16" dataDxfId="299"/>
-    <tableColumn id="297" xr3:uid="{C527B9C4-A941-4781-88D0-8F23ADB9B3A1}" uniqueName="297" name="category_0_14_label" queryTableFieldId="297" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{61235824-25DC-4B03-9101-940714718FF2}" uniqueName="17" name="category_0_14" queryTableFieldId="17" dataDxfId="298"/>
-    <tableColumn id="298" xr3:uid="{C029AC12-4BA3-470C-98AF-AE409454DDDC}" uniqueName="298" name="category_0_15_label" queryTableFieldId="298" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{86991BD9-392B-4869-9FE1-EFFE79F9FB83}" uniqueName="18" name="category_0_15" queryTableFieldId="18" dataDxfId="297"/>
-    <tableColumn id="299" xr3:uid="{7CFD5DDA-3986-45E7-818F-1D5F3A001186}" uniqueName="299" name="category_0_16_label" queryTableFieldId="299" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{EB35A7EF-F8D6-4ACE-A9D7-919DDE7E08D1}" uniqueName="19" name="category_0_16" queryTableFieldId="19" dataDxfId="296"/>
-    <tableColumn id="300" xr3:uid="{55A6B617-15E0-4208-9823-33E474201C27}" uniqueName="300" name="category_0_17_label" queryTableFieldId="300" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{B22D025B-A7E5-4DE1-B43D-00EF6E46EB53}" uniqueName="20" name="category_0_17" queryTableFieldId="20" dataDxfId="295"/>
-    <tableColumn id="301" xr3:uid="{5F4FA540-8720-472D-B9A0-D09A4451B675}" uniqueName="301" name="category_0_18_label" queryTableFieldId="301" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{AFFD5525-F2C0-49AD-850B-5E6F078628EF}" uniqueName="21" name="category_0_18" queryTableFieldId="21" dataDxfId="294"/>
-    <tableColumn id="302" xr3:uid="{E368949F-06E4-4036-B674-BF37A0FAC7B4}" uniqueName="302" name="category_0_19_label" queryTableFieldId="302" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{59E8831D-F680-48B0-9EFF-7C460E78358C}" uniqueName="22" name="category_0_19" queryTableFieldId="22" dataDxfId="293"/>
-    <tableColumn id="303" xr3:uid="{93D65ACC-B594-404D-B611-A21732767354}" uniqueName="303" name="category_0_20_label" queryTableFieldId="303" dataDxfId="13"/>
-    <tableColumn id="23" xr3:uid="{C8E52EFF-5216-4E83-AAAE-E2A2C842D973}" uniqueName="23" name="category_0_20" queryTableFieldId="23" dataDxfId="292"/>
-    <tableColumn id="304" xr3:uid="{8649DB5B-4C28-422C-A85F-446132E1C493}" uniqueName="304" name="category_0_21_label" queryTableFieldId="304" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{51516C50-9908-4670-93CB-3F814FD2F7F7}" uniqueName="24" name="category_0_21" queryTableFieldId="24" dataDxfId="291"/>
-    <tableColumn id="305" xr3:uid="{5E88E22C-967E-4AC3-9CA1-74EA62A821A9}" uniqueName="305" name="category_0_22_label" queryTableFieldId="305" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{487306EB-9230-4770-8E37-E107D6EB64F4}" uniqueName="25" name="category_0_22" queryTableFieldId="25" dataDxfId="290"/>
-    <tableColumn id="306" xr3:uid="{35F9FDDA-08C4-46C4-A2FB-63F84D5A61AE}" uniqueName="306" name="category_0_23_label" queryTableFieldId="306" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{F6F63568-1F64-4CFC-AEF3-772C74B773F3}" uniqueName="26" name="category_0_23" queryTableFieldId="26" dataDxfId="289"/>
-    <tableColumn id="307" xr3:uid="{7C019D6B-5ADD-416B-8BF3-553723CCD25F}" uniqueName="307" name="category_0_24_label" queryTableFieldId="307" dataDxfId="9"/>
-    <tableColumn id="27" xr3:uid="{A706B4E2-4869-4950-A8DB-F8924CCE09D3}" uniqueName="27" name="category_0_24" queryTableFieldId="27" dataDxfId="288"/>
-    <tableColumn id="308" xr3:uid="{70BC9796-C06E-4153-A23E-439227641E5D}" uniqueName="308" name="category_0_25_label" queryTableFieldId="308" dataDxfId="8"/>
-    <tableColumn id="28" xr3:uid="{3C5A3F34-E240-4B83-9E0D-72EBEE53E7CE}" uniqueName="28" name="category_0_25" queryTableFieldId="28" dataDxfId="287"/>
-    <tableColumn id="309" xr3:uid="{AA947A4F-7123-4C4B-861C-93270CBDF5B9}" uniqueName="309" name="category_0_26_label" queryTableFieldId="309" dataDxfId="7"/>
-    <tableColumn id="29" xr3:uid="{B3903B8D-FA55-43BA-A073-4A1E84806E3D}" uniqueName="29" name="category_0_26" queryTableFieldId="29" dataDxfId="286"/>
-    <tableColumn id="310" xr3:uid="{71D6D159-BE33-456B-BE70-08A7DAE29E47}" uniqueName="310" name="category_0_27_label" queryTableFieldId="310" dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{E0965233-95D5-4126-A700-6CD54A9FDA1D}" uniqueName="30" name="category_0_27" queryTableFieldId="30" dataDxfId="285"/>
-    <tableColumn id="311" xr3:uid="{827A29CB-9CF2-434D-B0B5-6D33D1AB1169}" uniqueName="311" name="category_0_28_label" queryTableFieldId="311" dataDxfId="5"/>
-    <tableColumn id="31" xr3:uid="{5F11BF64-8795-4F6E-BF3C-294F99305715}" uniqueName="31" name="category_0_28" queryTableFieldId="31" dataDxfId="284"/>
-    <tableColumn id="312" xr3:uid="{75BB311F-979A-439D-8A34-2C7D7445C5B0}" uniqueName="312" name="category_0_29_label" queryTableFieldId="312" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{80E993D9-85B2-4858-A87F-5CB510233EE3}" uniqueName="32" name="category_0_29" queryTableFieldId="32" dataDxfId="283"/>
-    <tableColumn id="313" xr3:uid="{EC317099-15E9-4E47-8387-B34C09A6C522}" uniqueName="313" name="category_0_30_label" queryTableFieldId="313" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{3D887CE3-B723-42CD-AFC3-AE902558B24F}" uniqueName="33" name="category_0_30" queryTableFieldId="33" dataDxfId="282"/>
-    <tableColumn id="314" xr3:uid="{38E0C169-9D0A-48E1-BF7B-3D664738B404}" uniqueName="314" name="category_0_31_label" queryTableFieldId="314" dataDxfId="2"/>
-    <tableColumn id="34" xr3:uid="{624D4F33-D365-49E3-8D58-501BAB638200}" uniqueName="34" name="category_0_31" queryTableFieldId="34" dataDxfId="281"/>
-    <tableColumn id="315" xr3:uid="{F7644661-67A6-43E8-8E8E-F7135A15A2F4}" uniqueName="315" name="category_0_32_label" queryTableFieldId="315" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{6B506A5A-BE48-4AB5-BD4F-641BB36C6D39}" uniqueName="35" name="category_0_32" queryTableFieldId="35" dataDxfId="280"/>
-    <tableColumn id="316" xr3:uid="{39B00B66-2540-4840-9191-6E99A940BB06}" uniqueName="316" name="category_0_33_label" queryTableFieldId="316" dataDxfId="0"/>
-    <tableColumn id="36" xr3:uid="{82FC1F32-E8C0-467C-9CB5-3EE1F1DB6464}" uniqueName="36" name="category_0_33" queryTableFieldId="36" dataDxfId="279"/>
-    <tableColumn id="37" xr3:uid="{8841FF99-CB07-4635-B6FC-A405677D0857}" uniqueName="37" name="category_0_34" queryTableFieldId="37" dataDxfId="278"/>
-    <tableColumn id="38" xr3:uid="{589CB57A-85FE-4912-8488-4D310612FCF6}" uniqueName="38" name="category_0_35" queryTableFieldId="38" dataDxfId="277"/>
-    <tableColumn id="39" xr3:uid="{3A01BD42-4F33-4E15-BCEC-978AC89C6E78}" uniqueName="39" name="category_0_36" queryTableFieldId="39" dataDxfId="276"/>
-    <tableColumn id="40" xr3:uid="{17B931DF-3804-45ED-8B56-E1D8ECD7A54D}" uniqueName="40" name="category_0_37" queryTableFieldId="40" dataDxfId="275"/>
-    <tableColumn id="41" xr3:uid="{74BFA242-3C39-48CD-B743-834F5C71F253}" uniqueName="41" name="category_0_38" queryTableFieldId="41" dataDxfId="274"/>
-    <tableColumn id="42" xr3:uid="{C6D84091-D448-4B72-BA8E-10A2F4AF8BC5}" uniqueName="42" name="category_0_39" queryTableFieldId="42" dataDxfId="273"/>
-    <tableColumn id="43" xr3:uid="{C9B99DF5-E900-4133-8C7A-212FBD33A22E}" uniqueName="43" name="category_0_40" queryTableFieldId="43" dataDxfId="272"/>
-    <tableColumn id="44" xr3:uid="{115B1D2F-13C9-4F6A-A589-F14B8DFC9119}" uniqueName="44" name="category_0_41" queryTableFieldId="44" dataDxfId="271"/>
-    <tableColumn id="45" xr3:uid="{66458837-D6DA-4332-AC48-4597B712AE02}" uniqueName="45" name="category_0_42" queryTableFieldId="45" dataDxfId="270"/>
-    <tableColumn id="46" xr3:uid="{11CD6B21-190C-4CB5-ABA8-A36E7F102B70}" uniqueName="46" name="category_0_43" queryTableFieldId="46" dataDxfId="269"/>
-    <tableColumn id="47" xr3:uid="{4660DDC2-3A81-42E0-B99D-84E7B707B7B4}" uniqueName="47" name="category_0_44" queryTableFieldId="47" dataDxfId="268"/>
-    <tableColumn id="48" xr3:uid="{09B58249-5DA0-4572-8AAB-E8C23A218E55}" uniqueName="48" name="category_0_45" queryTableFieldId="48" dataDxfId="267"/>
-    <tableColumn id="49" xr3:uid="{8E58821D-5093-449B-B384-EBBFCBFE6292}" uniqueName="49" name="category_0_46" queryTableFieldId="49" dataDxfId="266"/>
-    <tableColumn id="50" xr3:uid="{0215DDE8-A67D-4E8D-819F-4D19423A2656}" uniqueName="50" name="category_0_47" queryTableFieldId="50" dataDxfId="265"/>
-    <tableColumn id="51" xr3:uid="{A932B6C4-C370-4931-8ED7-E1C8DB81D090}" uniqueName="51" name="category_0_48" queryTableFieldId="51" dataDxfId="264"/>
-    <tableColumn id="52" xr3:uid="{A76CE6EB-12F0-47BB-B266-1572B2E6E7A6}" uniqueName="52" name="category_0_49" queryTableFieldId="52" dataDxfId="263"/>
-    <tableColumn id="53" xr3:uid="{41BD5B92-5EB3-41C0-B20D-AF3075592757}" uniqueName="53" name="category_0_50" queryTableFieldId="53" dataDxfId="262"/>
-    <tableColumn id="54" xr3:uid="{5E689652-9D1C-4EC0-AB50-7C70E5591BF5}" uniqueName="54" name="category_0_51" queryTableFieldId="54" dataDxfId="261"/>
-    <tableColumn id="55" xr3:uid="{7CD99D4C-D482-44A5-8213-DEB6EFDCBC96}" uniqueName="55" name="category_0_52" queryTableFieldId="55" dataDxfId="260"/>
-    <tableColumn id="56" xr3:uid="{A1D00455-A612-4F80-9B46-A30590A69B85}" uniqueName="56" name="category_0_53" queryTableFieldId="56" dataDxfId="259"/>
-    <tableColumn id="57" xr3:uid="{D0BA1454-1DE4-4EDD-A120-E9100DF01D83}" uniqueName="57" name="category_0_54" queryTableFieldId="57" dataDxfId="258"/>
-    <tableColumn id="58" xr3:uid="{89AE8F26-F4FF-4B86-A669-7FFB96FFCA2D}" uniqueName="58" name="category_0_55" queryTableFieldId="58" dataDxfId="257"/>
-    <tableColumn id="59" xr3:uid="{B1D8CBF6-AB8B-4FBB-BB27-23FFB6909EF5}" uniqueName="59" name="category_0_56" queryTableFieldId="59" dataDxfId="256"/>
-    <tableColumn id="60" xr3:uid="{1D51AA26-395E-48D3-A7F0-9044A39F1EBD}" uniqueName="60" name="category_0_57" queryTableFieldId="60" dataDxfId="255"/>
-    <tableColumn id="61" xr3:uid="{055EECCA-DF26-4358-BFEA-CB0AC84A88A8}" uniqueName="61" name="category_0_58" queryTableFieldId="61" dataDxfId="254"/>
-    <tableColumn id="62" xr3:uid="{124F427B-4A52-4464-8FDA-807AFB874617}" uniqueName="62" name="category_0_59" queryTableFieldId="62" dataDxfId="253"/>
-    <tableColumn id="63" xr3:uid="{ACC4C39A-738D-42A2-99E6-4D897D0C95CC}" uniqueName="63" name="category_0_60" queryTableFieldId="63" dataDxfId="252"/>
-    <tableColumn id="64" xr3:uid="{F54976EA-2834-4C62-8E95-65F0F03903DC}" uniqueName="64" name="category_0_61" queryTableFieldId="64" dataDxfId="251"/>
-    <tableColumn id="65" xr3:uid="{09BA18BE-5ED6-4F17-B93B-31E959C49DC1}" uniqueName="65" name="category_0_62" queryTableFieldId="65" dataDxfId="250"/>
-    <tableColumn id="66" xr3:uid="{3A6046C9-2629-40C2-87FF-3FE917607C6E}" uniqueName="66" name="category_0_63" queryTableFieldId="66" dataDxfId="249"/>
-    <tableColumn id="67" xr3:uid="{2B65F0A3-3AE3-47C8-A6E5-BA9A94B4F422}" uniqueName="67" name="category_0_64" queryTableFieldId="67" dataDxfId="248"/>
-    <tableColumn id="68" xr3:uid="{99CC9588-A53F-4B8F-9DFD-50B14A487663}" uniqueName="68" name="category_0_65" queryTableFieldId="68" dataDxfId="247"/>
-    <tableColumn id="69" xr3:uid="{F8F606ED-1C1D-44B3-A8CD-5111DEC7CFD9}" uniqueName="69" name="category_0_66" queryTableFieldId="69" dataDxfId="246"/>
-    <tableColumn id="70" xr3:uid="{4DEF422F-B293-4A9F-A686-C74B9FDFEA2F}" uniqueName="70" name="category_0_67" queryTableFieldId="70" dataDxfId="245"/>
-    <tableColumn id="71" xr3:uid="{A6364373-53D2-4B69-B7CB-B3A7BC26B5DA}" uniqueName="71" name="category_0_68" queryTableFieldId="71" dataDxfId="244"/>
-    <tableColumn id="72" xr3:uid="{A7112D4F-BC42-43A9-96F2-B489710F1B3C}" uniqueName="72" name="category_0_69" queryTableFieldId="72" dataDxfId="243"/>
-    <tableColumn id="73" xr3:uid="{5596E035-9808-4768-9472-4110912C39E3}" uniqueName="73" name="category_0_70" queryTableFieldId="73" dataDxfId="242"/>
-    <tableColumn id="74" xr3:uid="{95F61568-5CEA-4DE1-8A0A-C9D452E24518}" uniqueName="74" name="category_0_71" queryTableFieldId="74" dataDxfId="241"/>
-    <tableColumn id="75" xr3:uid="{CEEA8983-5D8E-4C25-BE77-92766C12D087}" uniqueName="75" name="category_0_72" queryTableFieldId="75" dataDxfId="240"/>
-    <tableColumn id="76" xr3:uid="{277419DA-2615-4895-BC14-D3299ECB191A}" uniqueName="76" name="category_0_73" queryTableFieldId="76" dataDxfId="239"/>
-    <tableColumn id="77" xr3:uid="{A476B880-2318-45ED-A6FC-E07ABC68ADA7}" uniqueName="77" name="category_0_74" queryTableFieldId="77" dataDxfId="238"/>
-    <tableColumn id="78" xr3:uid="{20A8BE38-CB0F-4B80-AC2C-F084D6AD0963}" uniqueName="78" name="category_0_75" queryTableFieldId="78" dataDxfId="237"/>
-    <tableColumn id="79" xr3:uid="{3CBCE0DD-679E-4EBA-897A-1246F1E55571}" uniqueName="79" name="category_0_76" queryTableFieldId="79" dataDxfId="236"/>
-    <tableColumn id="80" xr3:uid="{9449453F-50A2-4FC5-8427-9F69E0FBD596}" uniqueName="80" name="category_0_77" queryTableFieldId="80" dataDxfId="235"/>
-    <tableColumn id="81" xr3:uid="{DBD002CC-8EF0-4E7F-BBCE-1B90CA1B2DEA}" uniqueName="81" name="category_0_78" queryTableFieldId="81" dataDxfId="234"/>
-    <tableColumn id="82" xr3:uid="{0DA64B69-4D06-427E-8400-A592E0CCA8AF}" uniqueName="82" name="category_0_79" queryTableFieldId="82" dataDxfId="233"/>
-    <tableColumn id="83" xr3:uid="{C1CC8EDD-5731-4847-BD0A-F3492A34A587}" uniqueName="83" name="category_0_80" queryTableFieldId="83" dataDxfId="232"/>
-    <tableColumn id="84" xr3:uid="{A85DDB05-DAC7-4778-BAD6-08E71A0E48CA}" uniqueName="84" name="category_0_81" queryTableFieldId="84" dataDxfId="231"/>
-    <tableColumn id="85" xr3:uid="{0671327F-8C95-4496-BE69-52307E00D71F}" uniqueName="85" name="category_0_82" queryTableFieldId="85" dataDxfId="230"/>
-    <tableColumn id="86" xr3:uid="{EDADD1F6-4FA5-49F8-AE1F-EA97F7F87A6B}" uniqueName="86" name="category_0_83" queryTableFieldId="86" dataDxfId="229"/>
-    <tableColumn id="87" xr3:uid="{F2BD4AEB-4A0F-434F-B4D2-1DFD6DF775E4}" uniqueName="87" name="category_0_84" queryTableFieldId="87" dataDxfId="228"/>
-    <tableColumn id="88" xr3:uid="{4F3252FA-E059-4EC9-81F5-2A1F947DB003}" uniqueName="88" name="category_0_85" queryTableFieldId="88" dataDxfId="227"/>
-    <tableColumn id="89" xr3:uid="{B945D88C-83E7-48A8-B2DD-506B81AE6E36}" uniqueName="89" name="category_0_86" queryTableFieldId="89" dataDxfId="226"/>
-    <tableColumn id="90" xr3:uid="{9A3B0E03-8E98-4CE7-A158-69D20137031A}" uniqueName="90" name="category_0_87" queryTableFieldId="90" dataDxfId="225"/>
-    <tableColumn id="91" xr3:uid="{0770858A-217B-4CFA-82BE-FA6DA0EB21EC}" uniqueName="91" name="category_0_88" queryTableFieldId="91" dataDxfId="224"/>
-    <tableColumn id="92" xr3:uid="{7DF61865-F511-406F-AD69-AE94D07F10B9}" uniqueName="92" name="category_0_89" queryTableFieldId="92" dataDxfId="223"/>
-    <tableColumn id="93" xr3:uid="{780E4874-1CFC-42C3-B87C-1A3B7F743DC2}" uniqueName="93" name="category_0_90" queryTableFieldId="93" dataDxfId="222"/>
-    <tableColumn id="94" xr3:uid="{0F3B790E-8BE6-45AA-B16D-61B4020CEA47}" uniqueName="94" name="category_0_91" queryTableFieldId="94" dataDxfId="221"/>
-    <tableColumn id="95" xr3:uid="{963B7AAC-1AA1-4272-BC3B-3FBC3B1812ED}" uniqueName="95" name="category_0_92" queryTableFieldId="95" dataDxfId="220"/>
-    <tableColumn id="96" xr3:uid="{4E7B5148-0C8F-44E9-B230-2CAB713CF5F8}" uniqueName="96" name="category_0_93" queryTableFieldId="96" dataDxfId="219"/>
-    <tableColumn id="97" xr3:uid="{3E9D47E0-37E1-4847-99FC-4450063E2561}" uniqueName="97" name="category_0_94" queryTableFieldId="97" dataDxfId="218"/>
-    <tableColumn id="98" xr3:uid="{E93F25C6-3F3D-4145-AE21-EAF0FE1F5229}" uniqueName="98" name="category_0_95" queryTableFieldId="98" dataDxfId="217"/>
-    <tableColumn id="99" xr3:uid="{B9097F66-1740-4BBD-8D01-952667A53426}" uniqueName="99" name="category_0_96" queryTableFieldId="99" dataDxfId="216"/>
-    <tableColumn id="100" xr3:uid="{B6B79E0C-41EB-49AF-82A9-BF2C99F10B46}" uniqueName="100" name="category_0_97" queryTableFieldId="100" dataDxfId="215"/>
-    <tableColumn id="101" xr3:uid="{D860CD56-AFF9-4E33-B4BF-8B28ACF0C8C1}" uniqueName="101" name="category_0_98" queryTableFieldId="101" dataDxfId="214"/>
-    <tableColumn id="102" xr3:uid="{6AD180BC-1AA5-40C0-A074-827C8EFD7A49}" uniqueName="102" name="category_0_99" queryTableFieldId="102" dataDxfId="213"/>
-    <tableColumn id="103" xr3:uid="{A7E14EDA-ABE3-477F-9605-D9DA0D741824}" uniqueName="103" name="category_0_100" queryTableFieldId="103" dataDxfId="212"/>
-    <tableColumn id="104" xr3:uid="{8413121C-5FA1-4457-BD52-6BC1ADD9EA2B}" uniqueName="104" name="category_0_101" queryTableFieldId="104" dataDxfId="211"/>
-    <tableColumn id="105" xr3:uid="{30E261A3-EADC-4336-955F-7AA5BB877419}" uniqueName="105" name="category_0_102" queryTableFieldId="105" dataDxfId="210"/>
-    <tableColumn id="106" xr3:uid="{5BCE997C-8780-4991-965F-FD8B40C7CA1E}" uniqueName="106" name="category_0_103" queryTableFieldId="106" dataDxfId="209"/>
-    <tableColumn id="107" xr3:uid="{79B1BE3D-9F3E-43AB-A95B-090DF503E8B2}" uniqueName="107" name="category_0_104" queryTableFieldId="107" dataDxfId="208"/>
-    <tableColumn id="108" xr3:uid="{B56DB8AB-9413-472F-81FC-0F3995A25F6C}" uniqueName="108" name="category_0_105" queryTableFieldId="108" dataDxfId="207"/>
-    <tableColumn id="109" xr3:uid="{9CD2E076-CD88-4B3A-AD5F-9D6E85F37137}" uniqueName="109" name="category_0_106" queryTableFieldId="109" dataDxfId="206"/>
-    <tableColumn id="110" xr3:uid="{D2BE5066-D1FE-4867-9888-F69585244E4C}" uniqueName="110" name="category_0_107" queryTableFieldId="110" dataDxfId="205"/>
-    <tableColumn id="111" xr3:uid="{90BAF1EB-B938-4837-98D8-2CFF41BCE2E2}" uniqueName="111" name="category_0_108" queryTableFieldId="111" dataDxfId="204"/>
-    <tableColumn id="112" xr3:uid="{31E654F3-AAD5-4E3F-89EE-B71835D6EB85}" uniqueName="112" name="category_0_109" queryTableFieldId="112" dataDxfId="203"/>
-    <tableColumn id="113" xr3:uid="{0C497354-AF97-4C7B-BC15-E10D4FDE252F}" uniqueName="113" name="category_0_110" queryTableFieldId="113" dataDxfId="202"/>
-    <tableColumn id="114" xr3:uid="{5AC06B27-7A63-4A30-8E4E-48CB9F7F5C1C}" uniqueName="114" name="category_0_111" queryTableFieldId="114" dataDxfId="201"/>
-    <tableColumn id="115" xr3:uid="{BCAE2FA3-B88B-4CB0-A23F-467FF9E62EF4}" uniqueName="115" name="category_0_112" queryTableFieldId="115" dataDxfId="200"/>
-    <tableColumn id="116" xr3:uid="{727F1945-CBC3-4140-AE55-97B5DA6F5161}" uniqueName="116" name="category_0_113" queryTableFieldId="116" dataDxfId="199"/>
-    <tableColumn id="117" xr3:uid="{FF581371-270A-4A9B-BF62-E7A8033115CD}" uniqueName="117" name="category_0_114" queryTableFieldId="117" dataDxfId="198"/>
-    <tableColumn id="118" xr3:uid="{5EA3775E-A0E5-4884-8CEA-D26CA926AE74}" uniqueName="118" name="category_0_115" queryTableFieldId="118" dataDxfId="197"/>
-    <tableColumn id="119" xr3:uid="{6737E90E-B0DC-4653-BEC9-73BDCA7F3583}" uniqueName="119" name="category_0_116" queryTableFieldId="119" dataDxfId="196"/>
-    <tableColumn id="120" xr3:uid="{C6CF462B-C35B-42A6-AE71-37F1B53DBB26}" uniqueName="120" name="category_0_117" queryTableFieldId="120" dataDxfId="195"/>
-    <tableColumn id="121" xr3:uid="{10D1B510-E2D4-4979-91F5-3DB89138D28C}" uniqueName="121" name="category_0_118" queryTableFieldId="121" dataDxfId="194"/>
-    <tableColumn id="122" xr3:uid="{B0543F6C-AB1D-4F97-907A-45A37B12720C}" uniqueName="122" name="category_0_119" queryTableFieldId="122" dataDxfId="193"/>
-    <tableColumn id="123" xr3:uid="{80561268-0D3A-40F3-A874-B8C921AC616A}" uniqueName="123" name="category_0_120" queryTableFieldId="123" dataDxfId="192"/>
-    <tableColumn id="124" xr3:uid="{93B5036C-ECC7-4E77-A11E-67E11377C840}" uniqueName="124" name="category_0_121" queryTableFieldId="124" dataDxfId="191"/>
-    <tableColumn id="125" xr3:uid="{1F157D73-62EF-4181-AB53-728B242B8BD8}" uniqueName="125" name="category_0_122" queryTableFieldId="125" dataDxfId="190"/>
-    <tableColumn id="126" xr3:uid="{2863AD2B-E738-43DA-AE82-433089768585}" uniqueName="126" name="category_0_123" queryTableFieldId="126" dataDxfId="189"/>
-    <tableColumn id="127" xr3:uid="{BB6DE910-614A-42B2-9C6A-C4058A2C1BCD}" uniqueName="127" name="category_0_124" queryTableFieldId="127" dataDxfId="188"/>
-    <tableColumn id="128" xr3:uid="{D3195F20-58E3-48CE-A777-6FB59007FA64}" uniqueName="128" name="category_0_125" queryTableFieldId="128" dataDxfId="187"/>
-    <tableColumn id="129" xr3:uid="{8871F40D-7D24-4E7E-BB1D-592960CD2F85}" uniqueName="129" name="category_0_126" queryTableFieldId="129" dataDxfId="186"/>
-    <tableColumn id="130" xr3:uid="{DDDF459D-356F-4A8F-B960-F697CC76344B}" uniqueName="130" name="category_0_127" queryTableFieldId="130" dataDxfId="185"/>
-    <tableColumn id="131" xr3:uid="{9BB2F59A-94CF-44C9-96A3-5954BAE353AC}" uniqueName="131" name="category_0_128" queryTableFieldId="131" dataDxfId="184"/>
-    <tableColumn id="132" xr3:uid="{ACB2D985-38DF-494E-93FC-6452074B8A09}" uniqueName="132" name="category_0_129" queryTableFieldId="132" dataDxfId="183"/>
-    <tableColumn id="133" xr3:uid="{BC155FCD-02B6-4AC0-979E-79F902219778}" uniqueName="133" name="category_0_130" queryTableFieldId="133" dataDxfId="182"/>
-    <tableColumn id="134" xr3:uid="{FF1BED78-62AE-442E-B11E-8E41F2735839}" uniqueName="134" name="category_0_131" queryTableFieldId="134" dataDxfId="181"/>
-    <tableColumn id="135" xr3:uid="{E14927AE-AF58-457B-8D44-C9306515E39E}" uniqueName="135" name="category_0_132" queryTableFieldId="135" dataDxfId="180"/>
-    <tableColumn id="136" xr3:uid="{F4D8B3FD-948B-4366-BCD4-4CE3B5AC4263}" uniqueName="136" name="category_0_133" queryTableFieldId="136" dataDxfId="179"/>
-    <tableColumn id="137" xr3:uid="{3A476AE1-E8DF-47A0-B646-403D0DBF7F02}" uniqueName="137" name="category_0_134" queryTableFieldId="137" dataDxfId="178"/>
-    <tableColumn id="138" xr3:uid="{92D17A1D-E894-46D4-8848-527C1061F31F}" uniqueName="138" name="category_0_135" queryTableFieldId="138" dataDxfId="177"/>
-    <tableColumn id="139" xr3:uid="{02192457-067A-482C-B526-62C4B56C7E1F}" uniqueName="139" name="category_0_136" queryTableFieldId="139" dataDxfId="176"/>
-    <tableColumn id="140" xr3:uid="{5794ABF3-DDBB-4284-A435-4FE0443D638D}" uniqueName="140" name="category_0_137" queryTableFieldId="140" dataDxfId="175"/>
-    <tableColumn id="141" xr3:uid="{2D93A409-DFE2-4E1A-9A7C-15A8A81C69C7}" uniqueName="141" name="category_0_138" queryTableFieldId="141" dataDxfId="174"/>
-    <tableColumn id="142" xr3:uid="{198EE993-A6FF-434C-B596-094F15652EC4}" uniqueName="142" name="category_0_139" queryTableFieldId="142" dataDxfId="173"/>
-    <tableColumn id="143" xr3:uid="{0C103CB8-2F7A-4FB2-B634-86815FEEFFBD}" uniqueName="143" name="category_0_140" queryTableFieldId="143" dataDxfId="172"/>
-    <tableColumn id="144" xr3:uid="{F2E21958-8CA3-45A4-B56F-9D2181E15ADB}" uniqueName="144" name="category_0_141" queryTableFieldId="144" dataDxfId="171"/>
-    <tableColumn id="145" xr3:uid="{80EDFB8C-E646-461A-908A-01C60707ADCD}" uniqueName="145" name="category_0_142" queryTableFieldId="145" dataDxfId="170"/>
-    <tableColumn id="146" xr3:uid="{C569D3A7-2DDB-48FB-AE75-104D0D485D69}" uniqueName="146" name="category_0_143" queryTableFieldId="146" dataDxfId="169"/>
-    <tableColumn id="147" xr3:uid="{B0EEE62A-E115-444A-867A-CA6B2C710559}" uniqueName="147" name="category_0_144" queryTableFieldId="147" dataDxfId="168"/>
-    <tableColumn id="148" xr3:uid="{DEFB3F37-8658-4EF9-B6EB-99BB74DBC994}" uniqueName="148" name="category_0_145" queryTableFieldId="148" dataDxfId="167"/>
-    <tableColumn id="149" xr3:uid="{F83B9930-E9C6-4416-AB43-6A97813A9885}" uniqueName="149" name="category_0_146" queryTableFieldId="149" dataDxfId="166"/>
-    <tableColumn id="150" xr3:uid="{7D320660-2232-49E2-8C37-06F449791DFC}" uniqueName="150" name="category_0_147" queryTableFieldId="150" dataDxfId="165"/>
-    <tableColumn id="151" xr3:uid="{61B0B81B-085A-4C1B-B2BB-6CB63299D536}" uniqueName="151" name="category_0_148" queryTableFieldId="151" dataDxfId="164"/>
-    <tableColumn id="152" xr3:uid="{06E59A7F-FB04-466D-995B-6A24AEA4012E}" uniqueName="152" name="category_0_149" queryTableFieldId="152" dataDxfId="163"/>
-    <tableColumn id="153" xr3:uid="{48C3B7A2-A5F6-4DD7-950B-11CDD95FD103}" uniqueName="153" name="category_0_150" queryTableFieldId="153" dataDxfId="162"/>
-    <tableColumn id="154" xr3:uid="{C6F2927A-90E8-4B80-98DB-569E5C34620A}" uniqueName="154" name="category_0_151" queryTableFieldId="154" dataDxfId="161"/>
-    <tableColumn id="155" xr3:uid="{D30323A5-345B-4C5D-8D22-437552E322CA}" uniqueName="155" name="category_0_152" queryTableFieldId="155" dataDxfId="160"/>
-    <tableColumn id="156" xr3:uid="{D7CD590F-6D8A-41C3-9D9D-5C774AF2FCC0}" uniqueName="156" name="category_0_153" queryTableFieldId="156" dataDxfId="159"/>
-    <tableColumn id="157" xr3:uid="{59B9D8ED-58F4-46E1-8812-109686E0A292}" uniqueName="157" name="category_0_154" queryTableFieldId="157" dataDxfId="158"/>
-    <tableColumn id="158" xr3:uid="{256453C0-5914-4A84-B658-444E5E25A6C5}" uniqueName="158" name="category_0_155" queryTableFieldId="158" dataDxfId="157"/>
-    <tableColumn id="159" xr3:uid="{280165C3-489E-45C0-B6F7-9CC352ED9589}" uniqueName="159" name="category_0_156" queryTableFieldId="159" dataDxfId="156"/>
-    <tableColumn id="160" xr3:uid="{1A1493B7-2F1C-43DD-B0D2-385BC76B415B}" uniqueName="160" name="category_0_157" queryTableFieldId="160" dataDxfId="155"/>
-    <tableColumn id="161" xr3:uid="{12297AD0-9983-436A-8EAE-FC82ADADD901}" uniqueName="161" name="category_0_158" queryTableFieldId="161" dataDxfId="154"/>
-    <tableColumn id="162" xr3:uid="{B995C841-5151-4A39-895D-62172392F8C4}" uniqueName="162" name="category_0_159" queryTableFieldId="162" dataDxfId="153"/>
-    <tableColumn id="163" xr3:uid="{603F9DE4-1194-474D-B2F5-52C4B50A1914}" uniqueName="163" name="category_0_160" queryTableFieldId="163" dataDxfId="152"/>
-    <tableColumn id="164" xr3:uid="{671139CB-067C-459D-AC2D-50412E28C3C8}" uniqueName="164" name="category_0_161" queryTableFieldId="164" dataDxfId="151"/>
-    <tableColumn id="165" xr3:uid="{C111AACF-8352-4721-83BD-89F58E894E9D}" uniqueName="165" name="category_0_162" queryTableFieldId="165" dataDxfId="150"/>
-    <tableColumn id="166" xr3:uid="{3134600B-5063-4095-B09A-DBFB7DB15BBE}" uniqueName="166" name="category_0_163" queryTableFieldId="166" dataDxfId="149"/>
-    <tableColumn id="167" xr3:uid="{D29D7A81-B1D7-4853-B7D6-6B163A32C4A6}" uniqueName="167" name="category_0_164" queryTableFieldId="167" dataDxfId="148"/>
-    <tableColumn id="168" xr3:uid="{51980DFD-9A13-4D77-9DBD-7611E07EA4B8}" uniqueName="168" name="category_0_165" queryTableFieldId="168" dataDxfId="147"/>
-    <tableColumn id="169" xr3:uid="{D1ABAA3A-5928-4B98-B97B-6BACAFC2DDEB}" uniqueName="169" name="category_0_166" queryTableFieldId="169" dataDxfId="146"/>
-    <tableColumn id="170" xr3:uid="{DEA738D5-C743-4930-A7E0-EC56011999D8}" uniqueName="170" name="category_0_167" queryTableFieldId="170" dataDxfId="145"/>
-    <tableColumn id="171" xr3:uid="{8859040D-C76F-4951-9349-C3B908FD8816}" uniqueName="171" name="category_0_168" queryTableFieldId="171" dataDxfId="144"/>
-    <tableColumn id="172" xr3:uid="{00712A10-2C11-41CF-8821-FC0AA6940378}" uniqueName="172" name="category_0_169" queryTableFieldId="172" dataDxfId="143"/>
-    <tableColumn id="173" xr3:uid="{9598AA84-63EF-498D-BD19-693DEFA64C6C}" uniqueName="173" name="category_0_170" queryTableFieldId="173" dataDxfId="142"/>
-    <tableColumn id="174" xr3:uid="{4CEE6A2B-14A1-4414-81E0-7914C11E1CF1}" uniqueName="174" name="category_0_171" queryTableFieldId="174" dataDxfId="141"/>
-    <tableColumn id="175" xr3:uid="{526C1CB8-25BA-46AB-BF41-F18A7818D8E4}" uniqueName="175" name="category_0_172" queryTableFieldId="175" dataDxfId="140"/>
-    <tableColumn id="176" xr3:uid="{C84649E3-DF01-45A5-AC7C-50805B5F65D4}" uniqueName="176" name="category_0_173" queryTableFieldId="176" dataDxfId="139"/>
-    <tableColumn id="177" xr3:uid="{424DF038-0E83-40A6-9A88-FF026B78B9FE}" uniqueName="177" name="category_0_174" queryTableFieldId="177" dataDxfId="138"/>
-    <tableColumn id="178" xr3:uid="{E0638E2A-A244-4FD6-9ECC-DDFC622BBCFA}" uniqueName="178" name="category_0_175" queryTableFieldId="178" dataDxfId="137"/>
-    <tableColumn id="179" xr3:uid="{FA381E5D-8DB3-4562-8B4A-2820C5B260F0}" uniqueName="179" name="category_0_176" queryTableFieldId="179" dataDxfId="136"/>
-    <tableColumn id="180" xr3:uid="{326F27BB-204C-49ED-8690-4C730FDEBE2A}" uniqueName="180" name="category_0_177" queryTableFieldId="180" dataDxfId="135"/>
-    <tableColumn id="181" xr3:uid="{4BB12FC3-9FB6-47D2-91AC-A625777B7757}" uniqueName="181" name="category_0_178" queryTableFieldId="181" dataDxfId="134"/>
-    <tableColumn id="182" xr3:uid="{159C7F91-95C1-4905-BE00-30F028C27BBE}" uniqueName="182" name="category_0_179" queryTableFieldId="182" dataDxfId="133"/>
-    <tableColumn id="183" xr3:uid="{698EA7AC-649E-4D10-8C15-B973927A6C21}" uniqueName="183" name="category_0_180" queryTableFieldId="183" dataDxfId="132"/>
-    <tableColumn id="184" xr3:uid="{BC07C7D0-B212-43CF-AB3D-6FC5BE05D14F}" uniqueName="184" name="category_0_181" queryTableFieldId="184" dataDxfId="131"/>
-    <tableColumn id="185" xr3:uid="{2BD9D113-A59A-4327-84A1-CB9AB1A98D1B}" uniqueName="185" name="category_0_182" queryTableFieldId="185" dataDxfId="130"/>
-    <tableColumn id="186" xr3:uid="{0322B088-6C3B-481B-B7C6-EE3D04A6DE99}" uniqueName="186" name="category_0_183" queryTableFieldId="186" dataDxfId="129"/>
-    <tableColumn id="187" xr3:uid="{CBA252A0-9988-4CBD-B275-E3D46FB655CD}" uniqueName="187" name="category_0_184" queryTableFieldId="187" dataDxfId="128"/>
-    <tableColumn id="188" xr3:uid="{989AB360-8B86-431B-925B-E4EDCC1ABD95}" uniqueName="188" name="category_0_185" queryTableFieldId="188" dataDxfId="127"/>
-    <tableColumn id="189" xr3:uid="{BA643B07-5BB9-4B7C-9316-D0D3126C6E4B}" uniqueName="189" name="category_0_186" queryTableFieldId="189" dataDxfId="126"/>
-    <tableColumn id="190" xr3:uid="{A2FD4288-8449-4D52-93D1-FAEDECF3FD0F}" uniqueName="190" name="category_0_187" queryTableFieldId="190" dataDxfId="125"/>
-    <tableColumn id="191" xr3:uid="{681082A9-8776-47EC-A30B-4391524E7D5A}" uniqueName="191" name="category_0_188" queryTableFieldId="191" dataDxfId="124"/>
-    <tableColumn id="192" xr3:uid="{51D2D261-6A23-4AA0-AA6C-BF974DFD8CA7}" uniqueName="192" name="category_0_189" queryTableFieldId="192" dataDxfId="123"/>
-    <tableColumn id="193" xr3:uid="{36CFC702-709D-4435-BBEB-E56142FFB3B9}" uniqueName="193" name="category_0_190" queryTableFieldId="193" dataDxfId="122"/>
-    <tableColumn id="194" xr3:uid="{E0EA2894-9C64-4429-9CC9-F7AE184BFCEF}" uniqueName="194" name="category_0_191" queryTableFieldId="194" dataDxfId="121"/>
-    <tableColumn id="195" xr3:uid="{6471689E-0F39-4E1B-A737-1405623F9281}" uniqueName="195" name="category_0_192" queryTableFieldId="195" dataDxfId="120"/>
-    <tableColumn id="196" xr3:uid="{036C3BBD-EDEC-4011-9CFD-2B5833DBDAB8}" uniqueName="196" name="category_0_193" queryTableFieldId="196" dataDxfId="119"/>
-    <tableColumn id="197" xr3:uid="{54E0E211-94E6-48A6-BD98-6B42BB461F68}" uniqueName="197" name="category_0_194" queryTableFieldId="197" dataDxfId="118"/>
-    <tableColumn id="198" xr3:uid="{0C9E5D4D-240B-443C-969B-CF004DD399A4}" uniqueName="198" name="category_0_195" queryTableFieldId="198" dataDxfId="117"/>
-    <tableColumn id="199" xr3:uid="{B01F73E8-1CEA-40C7-B77B-10F734533C47}" uniqueName="199" name="category_0_196" queryTableFieldId="199" dataDxfId="116"/>
-    <tableColumn id="200" xr3:uid="{C80D9919-CBAE-439E-A8A8-3D0F5DC076B0}" uniqueName="200" name="category_0_197" queryTableFieldId="200" dataDxfId="115"/>
-    <tableColumn id="201" xr3:uid="{CE5F6F0B-6726-467F-A706-EA04206FD04A}" uniqueName="201" name="category_0_198" queryTableFieldId="201" dataDxfId="114"/>
-    <tableColumn id="202" xr3:uid="{386E350B-782F-434B-8F81-22A0DAC53CDF}" uniqueName="202" name="category_0_199" queryTableFieldId="202" dataDxfId="113"/>
-    <tableColumn id="203" xr3:uid="{66C03546-E254-4872-B651-65B894D8C076}" uniqueName="203" name="category_0_200" queryTableFieldId="203" dataDxfId="112"/>
-    <tableColumn id="204" xr3:uid="{306A43D5-E5D3-42CB-8DBF-5B9A543D2FDC}" uniqueName="204" name="category_0_201" queryTableFieldId="204" dataDxfId="111"/>
-    <tableColumn id="205" xr3:uid="{06DA8000-629F-4F36-85B2-BE14DCB2D013}" uniqueName="205" name="category_0_202" queryTableFieldId="205" dataDxfId="110"/>
-    <tableColumn id="206" xr3:uid="{E34793A3-FBC6-4484-BAEA-3F66A26E0B07}" uniqueName="206" name="category_0_203" queryTableFieldId="206" dataDxfId="109"/>
-    <tableColumn id="207" xr3:uid="{9AAA0B6A-9A7A-48A3-A81B-66EF5304019F}" uniqueName="207" name="category_0_204" queryTableFieldId="207" dataDxfId="108"/>
-    <tableColumn id="208" xr3:uid="{89785D62-3645-4A87-AA8F-DFA04296C147}" uniqueName="208" name="category_0_205" queryTableFieldId="208" dataDxfId="107"/>
-    <tableColumn id="209" xr3:uid="{BB1B3ACB-3D8E-41D8-8B6C-47CC0336603A}" uniqueName="209" name="category_0_206" queryTableFieldId="209" dataDxfId="106"/>
-    <tableColumn id="210" xr3:uid="{212B9AE8-04C3-4963-BEB4-9BB588887BE2}" uniqueName="210" name="category_0_207" queryTableFieldId="210" dataDxfId="105"/>
-    <tableColumn id="211" xr3:uid="{86D83025-7BF8-45B5-AB2D-00362E5D9338}" uniqueName="211" name="category_0_208" queryTableFieldId="211" dataDxfId="104"/>
-    <tableColumn id="212" xr3:uid="{A9203A58-4876-4B95-9FA6-2355EFE2A8C2}" uniqueName="212" name="category_0_209" queryTableFieldId="212" dataDxfId="103"/>
-    <tableColumn id="213" xr3:uid="{14DEE19D-47F9-46A1-9593-A8E9E5312973}" uniqueName="213" name="category_0_210" queryTableFieldId="213" dataDxfId="102"/>
-    <tableColumn id="214" xr3:uid="{C0374F91-F97B-489C-9D4B-D4C72CDE0E62}" uniqueName="214" name="category_0_211" queryTableFieldId="214" dataDxfId="101"/>
-    <tableColumn id="215" xr3:uid="{D7D29782-1C6A-4A4E-9AA6-CE2F8977A84F}" uniqueName="215" name="category_0_212" queryTableFieldId="215" dataDxfId="100"/>
-    <tableColumn id="216" xr3:uid="{4B5BBFCC-329D-44A8-B8D6-ADE57FAC2723}" uniqueName="216" name="category_0_213" queryTableFieldId="216" dataDxfId="99"/>
-    <tableColumn id="217" xr3:uid="{D06785EE-9CD0-4904-B871-1E01C61D6D65}" uniqueName="217" name="category_0_214" queryTableFieldId="217" dataDxfId="98"/>
-    <tableColumn id="218" xr3:uid="{4DD85FEC-C5EE-4BC9-9D11-1C4D61C7E32D}" uniqueName="218" name="category_0_215" queryTableFieldId="218" dataDxfId="97"/>
-    <tableColumn id="219" xr3:uid="{905CB13B-2447-4443-8F63-AFE3707D2CA5}" uniqueName="219" name="category_0_216" queryTableFieldId="219" dataDxfId="96"/>
-    <tableColumn id="220" xr3:uid="{0315DDC6-1AD7-4A66-BFBF-45A774A6088C}" uniqueName="220" name="category_0_217" queryTableFieldId="220" dataDxfId="95"/>
-    <tableColumn id="221" xr3:uid="{08D9E420-D0C0-4690-A2E2-AEB9D5DC7D28}" uniqueName="221" name="category_0_218" queryTableFieldId="221" dataDxfId="94"/>
-    <tableColumn id="222" xr3:uid="{9E2D2A5E-8BE1-4B96-93F3-13F5FD74276F}" uniqueName="222" name="category_0_219" queryTableFieldId="222" dataDxfId="93"/>
-    <tableColumn id="223" xr3:uid="{D0CECD10-D652-4276-B8A7-A603FD87A2A7}" uniqueName="223" name="category_0_220" queryTableFieldId="223" dataDxfId="92"/>
-    <tableColumn id="224" xr3:uid="{445A3CD0-57AD-4722-8F53-8802F67B299B}" uniqueName="224" name="category_0_221" queryTableFieldId="224" dataDxfId="91"/>
-    <tableColumn id="225" xr3:uid="{3681A068-9C55-497B-8318-462D5180C03A}" uniqueName="225" name="category_0_222" queryTableFieldId="225" dataDxfId="90"/>
-    <tableColumn id="226" xr3:uid="{89BE3FB9-FC3C-4D8A-8E33-DF26BD96CB61}" uniqueName="226" name="category_0_223" queryTableFieldId="226" dataDxfId="89"/>
-    <tableColumn id="227" xr3:uid="{0CA0767C-48DE-4972-93B6-A9B642202929}" uniqueName="227" name="category_0_224" queryTableFieldId="227" dataDxfId="88"/>
-    <tableColumn id="228" xr3:uid="{BB7E1D39-FCC6-4133-920B-F3F422155864}" uniqueName="228" name="category_0_225" queryTableFieldId="228" dataDxfId="87"/>
-    <tableColumn id="229" xr3:uid="{E9D15B0C-C587-4F02-8BD1-CA1873AFC811}" uniqueName="229" name="category_0_226" queryTableFieldId="229" dataDxfId="86"/>
-    <tableColumn id="230" xr3:uid="{605373E9-6439-4747-85CD-D6AA18367F76}" uniqueName="230" name="category_0_227" queryTableFieldId="230" dataDxfId="85"/>
-    <tableColumn id="231" xr3:uid="{118F4684-0D6C-4C19-B4C8-9079BC63676B}" uniqueName="231" name="category_0_228" queryTableFieldId="231" dataDxfId="84"/>
-    <tableColumn id="232" xr3:uid="{41D52BAF-B9D9-4788-B436-9F3F4A05EFED}" uniqueName="232" name="category_0_229" queryTableFieldId="232" dataDxfId="83"/>
-    <tableColumn id="233" xr3:uid="{C2947DAD-C292-42FB-95CB-775A9806B587}" uniqueName="233" name="category_0_230" queryTableFieldId="233" dataDxfId="82"/>
-    <tableColumn id="234" xr3:uid="{524A1DE5-722B-400D-B331-58E5843B347B}" uniqueName="234" name="category_0_231" queryTableFieldId="234" dataDxfId="81"/>
-    <tableColumn id="235" xr3:uid="{DC5EE1C4-C935-4B32-9D93-C51B24562F6F}" uniqueName="235" name="category_0_232" queryTableFieldId="235" dataDxfId="80"/>
-    <tableColumn id="236" xr3:uid="{765052F0-8077-4E98-A869-8621CDF968F1}" uniqueName="236" name="category_0_233" queryTableFieldId="236" dataDxfId="79"/>
-    <tableColumn id="237" xr3:uid="{A71488B5-68CA-44FA-8529-B56F55149811}" uniqueName="237" name="category_0_234" queryTableFieldId="237" dataDxfId="78"/>
-    <tableColumn id="238" xr3:uid="{3DB73ED0-B379-490E-98FE-0385AC469AE5}" uniqueName="238" name="category_0_235" queryTableFieldId="238" dataDxfId="77"/>
-    <tableColumn id="239" xr3:uid="{E9728589-B36B-416C-B103-A478546692CF}" uniqueName="239" name="category_0_236" queryTableFieldId="239" dataDxfId="76"/>
-    <tableColumn id="240" xr3:uid="{6138961E-2468-4D81-9CB6-73853B9A22DB}" uniqueName="240" name="category_0_237" queryTableFieldId="240" dataDxfId="75"/>
-    <tableColumn id="241" xr3:uid="{018FD3D7-6D31-42AD-89F7-DE7C822BBA6B}" uniqueName="241" name="category_0_238" queryTableFieldId="241" dataDxfId="74"/>
-    <tableColumn id="242" xr3:uid="{CDAAF8A9-20AC-42AB-9F25-81BF289CCF18}" uniqueName="242" name="category_0_239" queryTableFieldId="242" dataDxfId="73"/>
-    <tableColumn id="243" xr3:uid="{E0CAA930-B4F4-48F7-BABC-E706E396D859}" uniqueName="243" name="category_0_240" queryTableFieldId="243" dataDxfId="72"/>
-    <tableColumn id="244" xr3:uid="{9086478A-8F86-41F7-8151-39D393B8A765}" uniqueName="244" name="category_0_241" queryTableFieldId="244" dataDxfId="71"/>
-    <tableColumn id="245" xr3:uid="{0A1BF71F-6306-4818-A055-66833C56A150}" uniqueName="245" name="category_0_242" queryTableFieldId="245" dataDxfId="70"/>
-    <tableColumn id="246" xr3:uid="{B66805AB-743E-492C-8DA2-3B75F7178FFB}" uniqueName="246" name="category_0_243" queryTableFieldId="246" dataDxfId="69"/>
-    <tableColumn id="247" xr3:uid="{801977F1-B9B0-4374-911B-4AC990BF800B}" uniqueName="247" name="category_0_244" queryTableFieldId="247" dataDxfId="68"/>
-    <tableColumn id="248" xr3:uid="{2A8EADD0-9EEC-47A7-8C61-E223420A09DB}" uniqueName="248" name="category_0_245" queryTableFieldId="248" dataDxfId="67"/>
-    <tableColumn id="249" xr3:uid="{7A3C1826-43F9-4012-B1B4-BE83AA03F142}" uniqueName="249" name="category_0_246" queryTableFieldId="249" dataDxfId="66"/>
-    <tableColumn id="250" xr3:uid="{782DAF35-E6A2-437F-B1F3-98974FC1BD77}" uniqueName="250" name="category_0_247" queryTableFieldId="250" dataDxfId="65"/>
-    <tableColumn id="251" xr3:uid="{ABDAB5D7-A034-4551-A252-BF7551A25120}" uniqueName="251" name="category_0_248" queryTableFieldId="251" dataDxfId="64"/>
-    <tableColumn id="252" xr3:uid="{F0230D57-D5C1-4FED-B020-2DDB2F5E24DB}" uniqueName="252" name="category_0_249" queryTableFieldId="252" dataDxfId="63"/>
-    <tableColumn id="253" xr3:uid="{5F22D86E-5763-43F5-947D-D285925D3118}" uniqueName="253" name="category_0_250" queryTableFieldId="253" dataDxfId="62"/>
-    <tableColumn id="254" xr3:uid="{14448D19-07D3-4D75-826D-40B981E7EE27}" uniqueName="254" name="category_0_251" queryTableFieldId="254" dataDxfId="61"/>
-    <tableColumn id="255" xr3:uid="{A1D7084A-7767-4466-9717-0E1D5D2E6752}" uniqueName="255" name="category_0_252" queryTableFieldId="255" dataDxfId="60"/>
-    <tableColumn id="256" xr3:uid="{10CAFE87-B618-45BA-9CC7-8FB5235B08F1}" uniqueName="256" name="category_0_253" queryTableFieldId="256" dataDxfId="59"/>
-    <tableColumn id="257" xr3:uid="{7C859875-1533-4BFB-9D09-C60B59B6DF58}" uniqueName="257" name="category_0_254" queryTableFieldId="257" dataDxfId="58"/>
-    <tableColumn id="258" xr3:uid="{5D06DDAA-4D82-4C94-81D0-D1A0E7AE21A0}" uniqueName="258" name="category_0_255" queryTableFieldId="258" dataDxfId="57"/>
-    <tableColumn id="259" xr3:uid="{ECB02DD2-C2FA-452B-B79E-E6CAC171B68D}" uniqueName="259" name="category_0_256" queryTableFieldId="259" dataDxfId="56"/>
-    <tableColumn id="260" xr3:uid="{2D8175B5-CE29-40AC-82A0-D8EF365587CE}" uniqueName="260" name="category_0_257" queryTableFieldId="260" dataDxfId="55"/>
-    <tableColumn id="261" xr3:uid="{97928355-2740-45BC-823F-8DAB3828946F}" uniqueName="261" name="category_0_258" queryTableFieldId="261" dataDxfId="54"/>
-    <tableColumn id="262" xr3:uid="{FB7852F6-5CC8-41E1-BC2B-7116EC360003}" uniqueName="262" name="category_0_259" queryTableFieldId="262" dataDxfId="53"/>
-    <tableColumn id="263" xr3:uid="{A6AE56CC-9559-4A51-8DEE-B93358EB7B0E}" uniqueName="263" name="category_0_260" queryTableFieldId="263" dataDxfId="52"/>
-    <tableColumn id="264" xr3:uid="{D147E918-E32A-4278-8CE7-3460C1D111BE}" uniqueName="264" name="category_0_261" queryTableFieldId="264" dataDxfId="51"/>
-    <tableColumn id="265" xr3:uid="{88C1D373-8FD6-44AE-BF85-EC157E925C3A}" uniqueName="265" name="category_0_262" queryTableFieldId="265" dataDxfId="50"/>
-    <tableColumn id="266" xr3:uid="{18AE93A8-3E14-49B8-813B-30BDE9839072}" uniqueName="266" name="category_0_263" queryTableFieldId="266" dataDxfId="49"/>
-    <tableColumn id="267" xr3:uid="{E1935097-BC1A-4C4A-AC79-AAAA014C5C85}" uniqueName="267" name="category_0_264" queryTableFieldId="267" dataDxfId="48"/>
-    <tableColumn id="268" xr3:uid="{5BC2F9AB-4AC7-47DC-99EC-E558D3197425}" uniqueName="268" name="category_0_265" queryTableFieldId="268" dataDxfId="47"/>
-    <tableColumn id="269" xr3:uid="{5411B7CE-5778-4099-AEEE-69BC851AEFDC}" uniqueName="269" name="category_0_266" queryTableFieldId="269" dataDxfId="46"/>
-    <tableColumn id="270" xr3:uid="{ACBB3DAE-D6C4-4FF8-81EA-2F32D5343DF8}" uniqueName="270" name="category_0_267" queryTableFieldId="270" dataDxfId="45"/>
-    <tableColumn id="271" xr3:uid="{184C92A4-8B59-4527-9A98-31800814F8D3}" uniqueName="271" name="category_0_268" queryTableFieldId="271" dataDxfId="44"/>
-    <tableColumn id="272" xr3:uid="{1C39DA70-2A63-4F5F-9FD2-F50BC90915BA}" uniqueName="272" name="category_0_269" queryTableFieldId="272" dataDxfId="43"/>
-    <tableColumn id="273" xr3:uid="{6AFA703F-572D-449B-B719-F0A04D1FC6B4}" uniqueName="273" name="category_0_270" queryTableFieldId="273" dataDxfId="42"/>
-    <tableColumn id="274" xr3:uid="{073B1A39-AF56-40BC-BFFF-09EBE1FFD1F7}" uniqueName="274" name="category_0_271" queryTableFieldId="274" dataDxfId="41"/>
-    <tableColumn id="275" xr3:uid="{58871A61-CBED-45A8-9E40-6C6248E3BB6F}" uniqueName="275" name="category_0_272" queryTableFieldId="275" dataDxfId="40"/>
-    <tableColumn id="276" xr3:uid="{A3691FA9-D125-4A6A-8E5F-240662A122A6}" uniqueName="276" name="category_0_273" queryTableFieldId="276" dataDxfId="39"/>
-    <tableColumn id="277" xr3:uid="{EB1476DD-0CFF-46F4-A093-05C574E10ADF}" uniqueName="277" name="category_0_274" queryTableFieldId="277" dataDxfId="38"/>
-    <tableColumn id="278" xr3:uid="{E61BAAC6-2DBC-49CC-9882-5CC74C91FC70}" uniqueName="278" name="category_0_275" queryTableFieldId="278" dataDxfId="37"/>
-    <tableColumn id="279" xr3:uid="{D944E557-6BFD-4B6C-A415-EC360D743941}" uniqueName="279" name="category_0_276" queryTableFieldId="279" dataDxfId="36"/>
-    <tableColumn id="280" xr3:uid="{3AD881D4-6FC3-4A55-A901-B7137DC6C756}" uniqueName="280" name="category_0_277" queryTableFieldId="280" dataDxfId="35"/>
-    <tableColumn id="281" xr3:uid="{AA4C1887-0C74-47FE-A4A5-CB98D56468A0}" uniqueName="281" name="category_0_278" queryTableFieldId="281" dataDxfId="34"/>
-    <tableColumn id="282" xr3:uid="{DC568163-E16B-4BCE-907D-47CC5F72F0FC}" uniqueName="282" name="category_0_279" queryTableFieldId="282" dataDxfId="33"/>
+    <tableColumn id="284" xr3:uid="{AE643E56-F4E6-4D8B-B1D9-47772A0B877D}" uniqueName="284" name="category_0_1_label" queryTableFieldId="284" dataDxfId="311"/>
+    <tableColumn id="4" xr3:uid="{E18C7CFD-FB3A-4F63-B0F3-87F0B2133CD7}" uniqueName="4" name="category_0_1" queryTableFieldId="4" dataDxfId="310"/>
+    <tableColumn id="285" xr3:uid="{D0122D38-3773-4900-8D78-75A82D9DFF25}" uniqueName="285" name="category_0_2_label" queryTableFieldId="285" dataDxfId="309"/>
+    <tableColumn id="5" xr3:uid="{AC3F68D7-FD6F-4214-8114-CFA9C0ECC4E4}" uniqueName="5" name="category_0_2" queryTableFieldId="5" dataDxfId="308"/>
+    <tableColumn id="286" xr3:uid="{932E3BE4-F861-4C88-8127-78031CB05C81}" uniqueName="286" name="category_0_3_label" queryTableFieldId="286" dataDxfId="307"/>
+    <tableColumn id="6" xr3:uid="{DBCDAE10-1A33-4AFF-B71E-7C2B4CAEC10F}" uniqueName="6" name="category_0_3" queryTableFieldId="6" dataDxfId="306"/>
+    <tableColumn id="287" xr3:uid="{A980AA1D-FAB4-4209-88AF-61FDF45DC9F0}" uniqueName="287" name="category_0_4_label" queryTableFieldId="287" dataDxfId="305"/>
+    <tableColumn id="7" xr3:uid="{2175929B-0F7B-41FD-A463-4240A81185D6}" uniqueName="7" name="category_0_4" queryTableFieldId="7" dataDxfId="304"/>
+    <tableColumn id="288" xr3:uid="{71143BEF-8B44-4E1D-A5F4-9ECEE34CF0D4}" uniqueName="288" name="category_0_5_label" queryTableFieldId="288" dataDxfId="303"/>
+    <tableColumn id="8" xr3:uid="{D9A49BEE-EA69-4661-9430-3A1E927ADE56}" uniqueName="8" name="category_0_5" queryTableFieldId="8" dataDxfId="302"/>
+    <tableColumn id="289" xr3:uid="{2D62E196-62FA-40BE-AB54-15F595693A83}" uniqueName="289" name="category_0_6_label" queryTableFieldId="289" dataDxfId="301"/>
+    <tableColumn id="9" xr3:uid="{8E94B0AC-2994-4DCF-B15A-C95DDBB18677}" uniqueName="9" name="category_0_6" queryTableFieldId="9" dataDxfId="300"/>
+    <tableColumn id="290" xr3:uid="{E0B90B30-10EF-4310-A7E8-D38F1C6C15B1}" uniqueName="290" name="category_0_7_label" queryTableFieldId="290" dataDxfId="299"/>
+    <tableColumn id="10" xr3:uid="{BC8DAD55-DE38-4BF0-BD7E-CE02012DE3B2}" uniqueName="10" name="category_0_7" queryTableFieldId="10" dataDxfId="298"/>
+    <tableColumn id="291" xr3:uid="{F525B836-E077-495A-9A77-887B3925C623}" uniqueName="291" name="category_0_8_label" queryTableFieldId="291" dataDxfId="297"/>
+    <tableColumn id="11" xr3:uid="{6F62A5D8-9F66-45C4-B183-6C46746650AD}" uniqueName="11" name="category_0_8" queryTableFieldId="11" dataDxfId="296"/>
+    <tableColumn id="292" xr3:uid="{4AB38167-AB1F-4CBD-AFC0-8D7478741C55}" uniqueName="292" name="category_0_9_label" queryTableFieldId="292" dataDxfId="295"/>
+    <tableColumn id="12" xr3:uid="{57714491-AA14-4B43-B72D-E3809A29F854}" uniqueName="12" name="category_0_9" queryTableFieldId="12" dataDxfId="294"/>
+    <tableColumn id="293" xr3:uid="{F6E9920C-970D-4F39-B1E9-665A22F1EDD0}" uniqueName="293" name="category_0_10_label" queryTableFieldId="293" dataDxfId="293"/>
+    <tableColumn id="13" xr3:uid="{EB420C19-E31B-4C49-ABDF-7758DFA4DDC7}" uniqueName="13" name="category_0_10" queryTableFieldId="13" dataDxfId="292"/>
+    <tableColumn id="294" xr3:uid="{48AA2A75-F4C4-4698-A6EC-0A21E1C02BB0}" uniqueName="294" name="category_0_11_label" queryTableFieldId="294" dataDxfId="291"/>
+    <tableColumn id="14" xr3:uid="{D2C10B9D-67BC-49CC-8366-E40305D0CFE4}" uniqueName="14" name="category_0_11" queryTableFieldId="14" dataDxfId="290"/>
+    <tableColumn id="295" xr3:uid="{F202DED8-C90C-4012-A4CC-00B70AA8567D}" uniqueName="295" name="category_0_12_label" queryTableFieldId="295" dataDxfId="289"/>
+    <tableColumn id="15" xr3:uid="{51C02E08-DF2C-4DBB-B3D0-902A22774EC9}" uniqueName="15" name="category_0_12" queryTableFieldId="15" dataDxfId="288"/>
+    <tableColumn id="296" xr3:uid="{1BA179CE-CA2D-4060-9ACF-F7A461E73FF9}" uniqueName="296" name="category_0_13_label" queryTableFieldId="296" dataDxfId="287"/>
+    <tableColumn id="16" xr3:uid="{0739E101-B91A-4D21-A05B-FBF877AD0B37}" uniqueName="16" name="category_0_13" queryTableFieldId="16" dataDxfId="286"/>
+    <tableColumn id="297" xr3:uid="{C527B9C4-A941-4781-88D0-8F23ADB9B3A1}" uniqueName="297" name="category_0_14_label" queryTableFieldId="297" dataDxfId="285"/>
+    <tableColumn id="17" xr3:uid="{61235824-25DC-4B03-9101-940714718FF2}" uniqueName="17" name="category_0_14" queryTableFieldId="17" dataDxfId="284"/>
+    <tableColumn id="298" xr3:uid="{C029AC12-4BA3-470C-98AF-AE409454DDDC}" uniqueName="298" name="category_0_15_label" queryTableFieldId="298" dataDxfId="283"/>
+    <tableColumn id="18" xr3:uid="{86991BD9-392B-4869-9FE1-EFFE79F9FB83}" uniqueName="18" name="category_0_15" queryTableFieldId="18" dataDxfId="282"/>
+    <tableColumn id="299" xr3:uid="{7CFD5DDA-3986-45E7-818F-1D5F3A001186}" uniqueName="299" name="category_0_16_label" queryTableFieldId="299" dataDxfId="281"/>
+    <tableColumn id="19" xr3:uid="{EB35A7EF-F8D6-4ACE-A9D7-919DDE7E08D1}" uniqueName="19" name="category_0_16" queryTableFieldId="19" dataDxfId="280"/>
+    <tableColumn id="300" xr3:uid="{55A6B617-15E0-4208-9823-33E474201C27}" uniqueName="300" name="category_0_17_label" queryTableFieldId="300" dataDxfId="279"/>
+    <tableColumn id="20" xr3:uid="{B22D025B-A7E5-4DE1-B43D-00EF6E46EB53}" uniqueName="20" name="category_0_17" queryTableFieldId="20" dataDxfId="278"/>
+    <tableColumn id="301" xr3:uid="{5F4FA540-8720-472D-B9A0-D09A4451B675}" uniqueName="301" name="category_0_18_label" queryTableFieldId="301" dataDxfId="277"/>
+    <tableColumn id="21" xr3:uid="{AFFD5525-F2C0-49AD-850B-5E6F078628EF}" uniqueName="21" name="category_0_18" queryTableFieldId="21" dataDxfId="276"/>
+    <tableColumn id="302" xr3:uid="{E368949F-06E4-4036-B674-BF37A0FAC7B4}" uniqueName="302" name="category_0_19_label" queryTableFieldId="302" dataDxfId="275"/>
+    <tableColumn id="22" xr3:uid="{59E8831D-F680-48B0-9EFF-7C460E78358C}" uniqueName="22" name="category_0_19" queryTableFieldId="22" dataDxfId="274"/>
+    <tableColumn id="303" xr3:uid="{93D65ACC-B594-404D-B611-A21732767354}" uniqueName="303" name="category_0_20_label" queryTableFieldId="303" dataDxfId="273"/>
+    <tableColumn id="23" xr3:uid="{C8E52EFF-5216-4E83-AAAE-E2A2C842D973}" uniqueName="23" name="category_0_20" queryTableFieldId="23" dataDxfId="272"/>
+    <tableColumn id="304" xr3:uid="{8649DB5B-4C28-422C-A85F-446132E1C493}" uniqueName="304" name="category_0_21_label" queryTableFieldId="304" dataDxfId="271"/>
+    <tableColumn id="24" xr3:uid="{51516C50-9908-4670-93CB-3F814FD2F7F7}" uniqueName="24" name="category_0_21" queryTableFieldId="24" dataDxfId="270"/>
+    <tableColumn id="305" xr3:uid="{5E88E22C-967E-4AC3-9CA1-74EA62A821A9}" uniqueName="305" name="category_0_22_label" queryTableFieldId="305" dataDxfId="269"/>
+    <tableColumn id="25" xr3:uid="{487306EB-9230-4770-8E37-E107D6EB64F4}" uniqueName="25" name="category_0_22" queryTableFieldId="25" dataDxfId="268"/>
+    <tableColumn id="306" xr3:uid="{35F9FDDA-08C4-46C4-A2FB-63F84D5A61AE}" uniqueName="306" name="category_0_23_label" queryTableFieldId="306" dataDxfId="267"/>
+    <tableColumn id="26" xr3:uid="{F6F63568-1F64-4CFC-AEF3-772C74B773F3}" uniqueName="26" name="category_0_23" queryTableFieldId="26" dataDxfId="266"/>
+    <tableColumn id="307" xr3:uid="{7C019D6B-5ADD-416B-8BF3-553723CCD25F}" uniqueName="307" name="category_0_24_label" queryTableFieldId="307" dataDxfId="265"/>
+    <tableColumn id="27" xr3:uid="{A706B4E2-4869-4950-A8DB-F8924CCE09D3}" uniqueName="27" name="category_0_24" queryTableFieldId="27" dataDxfId="264"/>
+    <tableColumn id="308" xr3:uid="{70BC9796-C06E-4153-A23E-439227641E5D}" uniqueName="308" name="category_0_25_label" queryTableFieldId="308" dataDxfId="263"/>
+    <tableColumn id="28" xr3:uid="{3C5A3F34-E240-4B83-9E0D-72EBEE53E7CE}" uniqueName="28" name="category_0_25" queryTableFieldId="28" dataDxfId="262"/>
+    <tableColumn id="309" xr3:uid="{AA947A4F-7123-4C4B-861C-93270CBDF5B9}" uniqueName="309" name="category_0_26_label" queryTableFieldId="309" dataDxfId="261"/>
+    <tableColumn id="29" xr3:uid="{B3903B8D-FA55-43BA-A073-4A1E84806E3D}" uniqueName="29" name="category_0_26" queryTableFieldId="29" dataDxfId="260"/>
+    <tableColumn id="310" xr3:uid="{71D6D159-BE33-456B-BE70-08A7DAE29E47}" uniqueName="310" name="category_0_27_label" queryTableFieldId="310" dataDxfId="259"/>
+    <tableColumn id="30" xr3:uid="{E0965233-95D5-4126-A700-6CD54A9FDA1D}" uniqueName="30" name="category_0_27" queryTableFieldId="30" dataDxfId="258"/>
+    <tableColumn id="311" xr3:uid="{827A29CB-9CF2-434D-B0B5-6D33D1AB1169}" uniqueName="311" name="category_0_28_label" queryTableFieldId="311" dataDxfId="257"/>
+    <tableColumn id="31" xr3:uid="{5F11BF64-8795-4F6E-BF3C-294F99305715}" uniqueName="31" name="category_0_28" queryTableFieldId="31" dataDxfId="256"/>
+    <tableColumn id="312" xr3:uid="{75BB311F-979A-439D-8A34-2C7D7445C5B0}" uniqueName="312" name="category_0_29_label" queryTableFieldId="312" dataDxfId="255"/>
+    <tableColumn id="32" xr3:uid="{80E993D9-85B2-4858-A87F-5CB510233EE3}" uniqueName="32" name="category_0_29" queryTableFieldId="32" dataDxfId="254"/>
+    <tableColumn id="313" xr3:uid="{EC317099-15E9-4E47-8387-B34C09A6C522}" uniqueName="313" name="category_0_30_label" queryTableFieldId="313" dataDxfId="253"/>
+    <tableColumn id="33" xr3:uid="{3D887CE3-B723-42CD-AFC3-AE902558B24F}" uniqueName="33" name="category_0_30" queryTableFieldId="33" dataDxfId="252"/>
+    <tableColumn id="314" xr3:uid="{38E0C169-9D0A-48E1-BF7B-3D664738B404}" uniqueName="314" name="category_0_31_label" queryTableFieldId="314" dataDxfId="251"/>
+    <tableColumn id="34" xr3:uid="{624D4F33-D365-49E3-8D58-501BAB638200}" uniqueName="34" name="category_0_31" queryTableFieldId="34" dataDxfId="250"/>
+    <tableColumn id="315" xr3:uid="{F7644661-67A6-43E8-8E8E-F7135A15A2F4}" uniqueName="315" name="category_0_32_label" queryTableFieldId="315" dataDxfId="249"/>
+    <tableColumn id="35" xr3:uid="{6B506A5A-BE48-4AB5-BD4F-641BB36C6D39}" uniqueName="35" name="category_0_32" queryTableFieldId="35" dataDxfId="248"/>
+    <tableColumn id="316" xr3:uid="{39B00B66-2540-4840-9191-6E99A940BB06}" uniqueName="316" name="category_0_33_label" queryTableFieldId="316" dataDxfId="247"/>
+    <tableColumn id="36" xr3:uid="{82FC1F32-E8C0-467C-9CB5-3EE1F1DB6464}" uniqueName="36" name="category_0_33" queryTableFieldId="36" dataDxfId="246"/>
+    <tableColumn id="37" xr3:uid="{8841FF99-CB07-4635-B6FC-A405677D0857}" uniqueName="37" name="category_0_34" queryTableFieldId="37" dataDxfId="245"/>
+    <tableColumn id="38" xr3:uid="{589CB57A-85FE-4912-8488-4D310612FCF6}" uniqueName="38" name="category_0_35" queryTableFieldId="38" dataDxfId="244"/>
+    <tableColumn id="39" xr3:uid="{3A01BD42-4F33-4E15-BCEC-978AC89C6E78}" uniqueName="39" name="category_0_36" queryTableFieldId="39" dataDxfId="243"/>
+    <tableColumn id="40" xr3:uid="{17B931DF-3804-45ED-8B56-E1D8ECD7A54D}" uniqueName="40" name="category_0_37" queryTableFieldId="40" dataDxfId="242"/>
+    <tableColumn id="41" xr3:uid="{74BFA242-3C39-48CD-B743-834F5C71F253}" uniqueName="41" name="category_0_38" queryTableFieldId="41" dataDxfId="241"/>
+    <tableColumn id="42" xr3:uid="{C6D84091-D448-4B72-BA8E-10A2F4AF8BC5}" uniqueName="42" name="category_0_39" queryTableFieldId="42" dataDxfId="240"/>
+    <tableColumn id="43" xr3:uid="{C9B99DF5-E900-4133-8C7A-212FBD33A22E}" uniqueName="43" name="category_0_40" queryTableFieldId="43" dataDxfId="239"/>
+    <tableColumn id="44" xr3:uid="{115B1D2F-13C9-4F6A-A589-F14B8DFC9119}" uniqueName="44" name="category_0_41" queryTableFieldId="44" dataDxfId="238"/>
+    <tableColumn id="45" xr3:uid="{66458837-D6DA-4332-AC48-4597B712AE02}" uniqueName="45" name="category_0_42" queryTableFieldId="45" dataDxfId="237"/>
+    <tableColumn id="46" xr3:uid="{11CD6B21-190C-4CB5-ABA8-A36E7F102B70}" uniqueName="46" name="category_0_43" queryTableFieldId="46" dataDxfId="236"/>
+    <tableColumn id="47" xr3:uid="{4660DDC2-3A81-42E0-B99D-84E7B707B7B4}" uniqueName="47" name="category_0_44" queryTableFieldId="47" dataDxfId="235"/>
+    <tableColumn id="48" xr3:uid="{09B58249-5DA0-4572-8AAB-E8C23A218E55}" uniqueName="48" name="category_0_45" queryTableFieldId="48" dataDxfId="234"/>
+    <tableColumn id="49" xr3:uid="{8E58821D-5093-449B-B384-EBBFCBFE6292}" uniqueName="49" name="category_0_46" queryTableFieldId="49" dataDxfId="233"/>
+    <tableColumn id="50" xr3:uid="{0215DDE8-A67D-4E8D-819F-4D19423A2656}" uniqueName="50" name="category_0_47" queryTableFieldId="50" dataDxfId="232"/>
+    <tableColumn id="51" xr3:uid="{A932B6C4-C370-4931-8ED7-E1C8DB81D090}" uniqueName="51" name="category_0_48" queryTableFieldId="51" dataDxfId="231"/>
+    <tableColumn id="52" xr3:uid="{A76CE6EB-12F0-47BB-B266-1572B2E6E7A6}" uniqueName="52" name="category_0_49" queryTableFieldId="52" dataDxfId="230"/>
+    <tableColumn id="53" xr3:uid="{41BD5B92-5EB3-41C0-B20D-AF3075592757}" uniqueName="53" name="category_0_50" queryTableFieldId="53" dataDxfId="229"/>
+    <tableColumn id="54" xr3:uid="{5E689652-9D1C-4EC0-AB50-7C70E5591BF5}" uniqueName="54" name="category_0_51" queryTableFieldId="54" dataDxfId="228"/>
+    <tableColumn id="55" xr3:uid="{7CD99D4C-D482-44A5-8213-DEB6EFDCBC96}" uniqueName="55" name="category_0_52" queryTableFieldId="55" dataDxfId="227"/>
+    <tableColumn id="56" xr3:uid="{A1D00455-A612-4F80-9B46-A30590A69B85}" uniqueName="56" name="category_0_53" queryTableFieldId="56" dataDxfId="226"/>
+    <tableColumn id="57" xr3:uid="{D0BA1454-1DE4-4EDD-A120-E9100DF01D83}" uniqueName="57" name="category_0_54" queryTableFieldId="57" dataDxfId="225"/>
+    <tableColumn id="58" xr3:uid="{89AE8F26-F4FF-4B86-A669-7FFB96FFCA2D}" uniqueName="58" name="category_0_55" queryTableFieldId="58" dataDxfId="224"/>
+    <tableColumn id="59" xr3:uid="{B1D8CBF6-AB8B-4FBB-BB27-23FFB6909EF5}" uniqueName="59" name="category_0_56" queryTableFieldId="59" dataDxfId="223"/>
+    <tableColumn id="60" xr3:uid="{1D51AA26-395E-48D3-A7F0-9044A39F1EBD}" uniqueName="60" name="category_0_57" queryTableFieldId="60" dataDxfId="222"/>
+    <tableColumn id="61" xr3:uid="{055EECCA-DF26-4358-BFEA-CB0AC84A88A8}" uniqueName="61" name="category_0_58" queryTableFieldId="61" dataDxfId="221"/>
+    <tableColumn id="62" xr3:uid="{124F427B-4A52-4464-8FDA-807AFB874617}" uniqueName="62" name="category_0_59" queryTableFieldId="62" dataDxfId="220"/>
+    <tableColumn id="63" xr3:uid="{ACC4C39A-738D-42A2-99E6-4D897D0C95CC}" uniqueName="63" name="category_0_60" queryTableFieldId="63" dataDxfId="219"/>
+    <tableColumn id="64" xr3:uid="{F54976EA-2834-4C62-8E95-65F0F03903DC}" uniqueName="64" name="category_0_61" queryTableFieldId="64" dataDxfId="218"/>
+    <tableColumn id="65" xr3:uid="{09BA18BE-5ED6-4F17-B93B-31E959C49DC1}" uniqueName="65" name="category_0_62" queryTableFieldId="65" dataDxfId="217"/>
+    <tableColumn id="66" xr3:uid="{3A6046C9-2629-40C2-87FF-3FE917607C6E}" uniqueName="66" name="category_0_63" queryTableFieldId="66" dataDxfId="216"/>
+    <tableColumn id="67" xr3:uid="{2B65F0A3-3AE3-47C8-A6E5-BA9A94B4F422}" uniqueName="67" name="category_0_64" queryTableFieldId="67" dataDxfId="215"/>
+    <tableColumn id="68" xr3:uid="{99CC9588-A53F-4B8F-9DFD-50B14A487663}" uniqueName="68" name="category_0_65" queryTableFieldId="68" dataDxfId="214"/>
+    <tableColumn id="69" xr3:uid="{F8F606ED-1C1D-44B3-A8CD-5111DEC7CFD9}" uniqueName="69" name="category_0_66" queryTableFieldId="69" dataDxfId="213"/>
+    <tableColumn id="70" xr3:uid="{4DEF422F-B293-4A9F-A686-C74B9FDFEA2F}" uniqueName="70" name="category_0_67" queryTableFieldId="70" dataDxfId="212"/>
+    <tableColumn id="71" xr3:uid="{A6364373-53D2-4B69-B7CB-B3A7BC26B5DA}" uniqueName="71" name="category_0_68" queryTableFieldId="71" dataDxfId="211"/>
+    <tableColumn id="72" xr3:uid="{A7112D4F-BC42-43A9-96F2-B489710F1B3C}" uniqueName="72" name="category_0_69" queryTableFieldId="72" dataDxfId="210"/>
+    <tableColumn id="73" xr3:uid="{5596E035-9808-4768-9472-4110912C39E3}" uniqueName="73" name="category_0_70" queryTableFieldId="73" dataDxfId="209"/>
+    <tableColumn id="74" xr3:uid="{95F61568-5CEA-4DE1-8A0A-C9D452E24518}" uniqueName="74" name="category_0_71" queryTableFieldId="74" dataDxfId="208"/>
+    <tableColumn id="75" xr3:uid="{CEEA8983-5D8E-4C25-BE77-92766C12D087}" uniqueName="75" name="category_0_72" queryTableFieldId="75" dataDxfId="207"/>
+    <tableColumn id="76" xr3:uid="{277419DA-2615-4895-BC14-D3299ECB191A}" uniqueName="76" name="category_0_73" queryTableFieldId="76" dataDxfId="206"/>
+    <tableColumn id="77" xr3:uid="{A476B880-2318-45ED-A6FC-E07ABC68ADA7}" uniqueName="77" name="category_0_74" queryTableFieldId="77" dataDxfId="205"/>
+    <tableColumn id="78" xr3:uid="{20A8BE38-CB0F-4B80-AC2C-F084D6AD0963}" uniqueName="78" name="category_0_75" queryTableFieldId="78" dataDxfId="204"/>
+    <tableColumn id="79" xr3:uid="{3CBCE0DD-679E-4EBA-897A-1246F1E55571}" uniqueName="79" name="category_0_76" queryTableFieldId="79" dataDxfId="203"/>
+    <tableColumn id="80" xr3:uid="{9449453F-50A2-4FC5-8427-9F69E0FBD596}" uniqueName="80" name="category_0_77" queryTableFieldId="80" dataDxfId="202"/>
+    <tableColumn id="81" xr3:uid="{DBD002CC-8EF0-4E7F-BBCE-1B90CA1B2DEA}" uniqueName="81" name="category_0_78" queryTableFieldId="81" dataDxfId="201"/>
+    <tableColumn id="82" xr3:uid="{0DA64B69-4D06-427E-8400-A592E0CCA8AF}" uniqueName="82" name="category_0_79" queryTableFieldId="82" dataDxfId="200"/>
+    <tableColumn id="83" xr3:uid="{C1CC8EDD-5731-4847-BD0A-F3492A34A587}" uniqueName="83" name="category_0_80" queryTableFieldId="83" dataDxfId="199"/>
+    <tableColumn id="84" xr3:uid="{A85DDB05-DAC7-4778-BAD6-08E71A0E48CA}" uniqueName="84" name="category_0_81" queryTableFieldId="84" dataDxfId="198"/>
+    <tableColumn id="85" xr3:uid="{0671327F-8C95-4496-BE69-52307E00D71F}" uniqueName="85" name="category_0_82" queryTableFieldId="85" dataDxfId="197"/>
+    <tableColumn id="86" xr3:uid="{EDADD1F6-4FA5-49F8-AE1F-EA97F7F87A6B}" uniqueName="86" name="category_0_83" queryTableFieldId="86" dataDxfId="196"/>
+    <tableColumn id="87" xr3:uid="{F2BD4AEB-4A0F-434F-B4D2-1DFD6DF775E4}" uniqueName="87" name="category_0_84" queryTableFieldId="87" dataDxfId="195"/>
+    <tableColumn id="88" xr3:uid="{4F3252FA-E059-4EC9-81F5-2A1F947DB003}" uniqueName="88" name="category_0_85" queryTableFieldId="88" dataDxfId="194"/>
+    <tableColumn id="89" xr3:uid="{B945D88C-83E7-48A8-B2DD-506B81AE6E36}" uniqueName="89" name="category_0_86" queryTableFieldId="89" dataDxfId="193"/>
+    <tableColumn id="90" xr3:uid="{9A3B0E03-8E98-4CE7-A158-69D20137031A}" uniqueName="90" name="category_0_87" queryTableFieldId="90" dataDxfId="192"/>
+    <tableColumn id="91" xr3:uid="{0770858A-217B-4CFA-82BE-FA6DA0EB21EC}" uniqueName="91" name="category_0_88" queryTableFieldId="91" dataDxfId="191"/>
+    <tableColumn id="92" xr3:uid="{7DF61865-F511-406F-AD69-AE94D07F10B9}" uniqueName="92" name="category_0_89" queryTableFieldId="92" dataDxfId="190"/>
+    <tableColumn id="93" xr3:uid="{780E4874-1CFC-42C3-B87C-1A3B7F743DC2}" uniqueName="93" name="category_0_90" queryTableFieldId="93" dataDxfId="189"/>
+    <tableColumn id="94" xr3:uid="{0F3B790E-8BE6-45AA-B16D-61B4020CEA47}" uniqueName="94" name="category_0_91" queryTableFieldId="94" dataDxfId="188"/>
+    <tableColumn id="95" xr3:uid="{963B7AAC-1AA1-4272-BC3B-3FBC3B1812ED}" uniqueName="95" name="category_0_92" queryTableFieldId="95" dataDxfId="187"/>
+    <tableColumn id="96" xr3:uid="{4E7B5148-0C8F-44E9-B230-2CAB713CF5F8}" uniqueName="96" name="category_0_93" queryTableFieldId="96" dataDxfId="186"/>
+    <tableColumn id="97" xr3:uid="{3E9D47E0-37E1-4847-99FC-4450063E2561}" uniqueName="97" name="category_0_94" queryTableFieldId="97" dataDxfId="185"/>
+    <tableColumn id="98" xr3:uid="{E93F25C6-3F3D-4145-AE21-EAF0FE1F5229}" uniqueName="98" name="category_0_95" queryTableFieldId="98" dataDxfId="184"/>
+    <tableColumn id="99" xr3:uid="{B9097F66-1740-4BBD-8D01-952667A53426}" uniqueName="99" name="category_0_96" queryTableFieldId="99" dataDxfId="183"/>
+    <tableColumn id="100" xr3:uid="{B6B79E0C-41EB-49AF-82A9-BF2C99F10B46}" uniqueName="100" name="category_0_97" queryTableFieldId="100" dataDxfId="182"/>
+    <tableColumn id="101" xr3:uid="{D860CD56-AFF9-4E33-B4BF-8B28ACF0C8C1}" uniqueName="101" name="category_0_98" queryTableFieldId="101" dataDxfId="181"/>
+    <tableColumn id="102" xr3:uid="{6AD180BC-1AA5-40C0-A074-827C8EFD7A49}" uniqueName="102" name="category_0_99" queryTableFieldId="102" dataDxfId="180"/>
+    <tableColumn id="103" xr3:uid="{A7E14EDA-ABE3-477F-9605-D9DA0D741824}" uniqueName="103" name="category_0_100" queryTableFieldId="103" dataDxfId="179"/>
+    <tableColumn id="104" xr3:uid="{8413121C-5FA1-4457-BD52-6BC1ADD9EA2B}" uniqueName="104" name="category_0_101" queryTableFieldId="104" dataDxfId="178"/>
+    <tableColumn id="105" xr3:uid="{30E261A3-EADC-4336-955F-7AA5BB877419}" uniqueName="105" name="category_0_102" queryTableFieldId="105" dataDxfId="177"/>
+    <tableColumn id="106" xr3:uid="{5BCE997C-8780-4991-965F-FD8B40C7CA1E}" uniqueName="106" name="category_0_103" queryTableFieldId="106" dataDxfId="176"/>
+    <tableColumn id="107" xr3:uid="{79B1BE3D-9F3E-43AB-A95B-090DF503E8B2}" uniqueName="107" name="category_0_104" queryTableFieldId="107" dataDxfId="175"/>
+    <tableColumn id="108" xr3:uid="{B56DB8AB-9413-472F-81FC-0F3995A25F6C}" uniqueName="108" name="category_0_105" queryTableFieldId="108" dataDxfId="174"/>
+    <tableColumn id="109" xr3:uid="{9CD2E076-CD88-4B3A-AD5F-9D6E85F37137}" uniqueName="109" name="category_0_106" queryTableFieldId="109" dataDxfId="173"/>
+    <tableColumn id="110" xr3:uid="{D2BE5066-D1FE-4867-9888-F69585244E4C}" uniqueName="110" name="category_0_107" queryTableFieldId="110" dataDxfId="172"/>
+    <tableColumn id="111" xr3:uid="{90BAF1EB-B938-4837-98D8-2CFF41BCE2E2}" uniqueName="111" name="category_0_108" queryTableFieldId="111" dataDxfId="171"/>
+    <tableColumn id="112" xr3:uid="{31E654F3-AAD5-4E3F-89EE-B71835D6EB85}" uniqueName="112" name="category_0_109" queryTableFieldId="112" dataDxfId="170"/>
+    <tableColumn id="113" xr3:uid="{0C497354-AF97-4C7B-BC15-E10D4FDE252F}" uniqueName="113" name="category_0_110" queryTableFieldId="113" dataDxfId="169"/>
+    <tableColumn id="114" xr3:uid="{5AC06B27-7A63-4A30-8E4E-48CB9F7F5C1C}" uniqueName="114" name="category_0_111" queryTableFieldId="114" dataDxfId="168"/>
+    <tableColumn id="115" xr3:uid="{BCAE2FA3-B88B-4CB0-A23F-467FF9E62EF4}" uniqueName="115" name="category_0_112" queryTableFieldId="115" dataDxfId="167"/>
+    <tableColumn id="116" xr3:uid="{727F1945-CBC3-4140-AE55-97B5DA6F5161}" uniqueName="116" name="category_0_113" queryTableFieldId="116" dataDxfId="166"/>
+    <tableColumn id="117" xr3:uid="{FF581371-270A-4A9B-BF62-E7A8033115CD}" uniqueName="117" name="category_0_114" queryTableFieldId="117" dataDxfId="165"/>
+    <tableColumn id="118" xr3:uid="{5EA3775E-A0E5-4884-8CEA-D26CA926AE74}" uniqueName="118" name="category_0_115" queryTableFieldId="118" dataDxfId="164"/>
+    <tableColumn id="119" xr3:uid="{6737E90E-B0DC-4653-BEC9-73BDCA7F3583}" uniqueName="119" name="category_0_116" queryTableFieldId="119" dataDxfId="163"/>
+    <tableColumn id="120" xr3:uid="{C6CF462B-C35B-42A6-AE71-37F1B53DBB26}" uniqueName="120" name="category_0_117" queryTableFieldId="120" dataDxfId="162"/>
+    <tableColumn id="121" xr3:uid="{10D1B510-E2D4-4979-91F5-3DB89138D28C}" uniqueName="121" name="category_0_118" queryTableFieldId="121" dataDxfId="161"/>
+    <tableColumn id="122" xr3:uid="{B0543F6C-AB1D-4F97-907A-45A37B12720C}" uniqueName="122" name="category_0_119" queryTableFieldId="122" dataDxfId="160"/>
+    <tableColumn id="123" xr3:uid="{80561268-0D3A-40F3-A874-B8C921AC616A}" uniqueName="123" name="category_0_120" queryTableFieldId="123" dataDxfId="159"/>
+    <tableColumn id="124" xr3:uid="{93B5036C-ECC7-4E77-A11E-67E11377C840}" uniqueName="124" name="category_0_121" queryTableFieldId="124" dataDxfId="158"/>
+    <tableColumn id="125" xr3:uid="{1F157D73-62EF-4181-AB53-728B242B8BD8}" uniqueName="125" name="category_0_122" queryTableFieldId="125" dataDxfId="157"/>
+    <tableColumn id="126" xr3:uid="{2863AD2B-E738-43DA-AE82-433089768585}" uniqueName="126" name="category_0_123" queryTableFieldId="126" dataDxfId="156"/>
+    <tableColumn id="127" xr3:uid="{BB6DE910-614A-42B2-9C6A-C4058A2C1BCD}" uniqueName="127" name="category_0_124" queryTableFieldId="127" dataDxfId="155"/>
+    <tableColumn id="128" xr3:uid="{D3195F20-58E3-48CE-A777-6FB59007FA64}" uniqueName="128" name="category_0_125" queryTableFieldId="128" dataDxfId="154"/>
+    <tableColumn id="129" xr3:uid="{8871F40D-7D24-4E7E-BB1D-592960CD2F85}" uniqueName="129" name="category_0_126" queryTableFieldId="129" dataDxfId="153"/>
+    <tableColumn id="130" xr3:uid="{DDDF459D-356F-4A8F-B960-F697CC76344B}" uniqueName="130" name="category_0_127" queryTableFieldId="130" dataDxfId="152"/>
+    <tableColumn id="131" xr3:uid="{9BB2F59A-94CF-44C9-96A3-5954BAE353AC}" uniqueName="131" name="category_0_128" queryTableFieldId="131" dataDxfId="151"/>
+    <tableColumn id="132" xr3:uid="{ACB2D985-38DF-494E-93FC-6452074B8A09}" uniqueName="132" name="category_0_129" queryTableFieldId="132" dataDxfId="150"/>
+    <tableColumn id="133" xr3:uid="{BC155FCD-02B6-4AC0-979E-79F902219778}" uniqueName="133" name="category_0_130" queryTableFieldId="133" dataDxfId="149"/>
+    <tableColumn id="134" xr3:uid="{FF1BED78-62AE-442E-B11E-8E41F2735839}" uniqueName="134" name="category_0_131" queryTableFieldId="134" dataDxfId="148"/>
+    <tableColumn id="135" xr3:uid="{E14927AE-AF58-457B-8D44-C9306515E39E}" uniqueName="135" name="category_0_132" queryTableFieldId="135" dataDxfId="147"/>
+    <tableColumn id="136" xr3:uid="{F4D8B3FD-948B-4366-BCD4-4CE3B5AC4263}" uniqueName="136" name="category_0_133" queryTableFieldId="136" dataDxfId="146"/>
+    <tableColumn id="137" xr3:uid="{3A476AE1-E8DF-47A0-B646-403D0DBF7F02}" uniqueName="137" name="category_0_134" queryTableFieldId="137" dataDxfId="145"/>
+    <tableColumn id="138" xr3:uid="{92D17A1D-E894-46D4-8848-527C1061F31F}" uniqueName="138" name="category_0_135" queryTableFieldId="138" dataDxfId="144"/>
+    <tableColumn id="139" xr3:uid="{02192457-067A-482C-B526-62C4B56C7E1F}" uniqueName="139" name="category_0_136" queryTableFieldId="139" dataDxfId="143"/>
+    <tableColumn id="140" xr3:uid="{5794ABF3-DDBB-4284-A435-4FE0443D638D}" uniqueName="140" name="category_0_137" queryTableFieldId="140" dataDxfId="142"/>
+    <tableColumn id="141" xr3:uid="{2D93A409-DFE2-4E1A-9A7C-15A8A81C69C7}" uniqueName="141" name="category_0_138" queryTableFieldId="141" dataDxfId="141"/>
+    <tableColumn id="142" xr3:uid="{198EE993-A6FF-434C-B596-094F15652EC4}" uniqueName="142" name="category_0_139" queryTableFieldId="142" dataDxfId="140"/>
+    <tableColumn id="143" xr3:uid="{0C103CB8-2F7A-4FB2-B634-86815FEEFFBD}" uniqueName="143" name="category_0_140" queryTableFieldId="143" dataDxfId="139"/>
+    <tableColumn id="144" xr3:uid="{F2E21958-8CA3-45A4-B56F-9D2181E15ADB}" uniqueName="144" name="category_0_141" queryTableFieldId="144" dataDxfId="138"/>
+    <tableColumn id="145" xr3:uid="{80EDFB8C-E646-461A-908A-01C60707ADCD}" uniqueName="145" name="category_0_142" queryTableFieldId="145" dataDxfId="137"/>
+    <tableColumn id="146" xr3:uid="{C569D3A7-2DDB-48FB-AE75-104D0D485D69}" uniqueName="146" name="category_0_143" queryTableFieldId="146" dataDxfId="136"/>
+    <tableColumn id="147" xr3:uid="{B0EEE62A-E115-444A-867A-CA6B2C710559}" uniqueName="147" name="category_0_144" queryTableFieldId="147" dataDxfId="135"/>
+    <tableColumn id="148" xr3:uid="{DEFB3F37-8658-4EF9-B6EB-99BB74DBC994}" uniqueName="148" name="category_0_145" queryTableFieldId="148" dataDxfId="134"/>
+    <tableColumn id="149" xr3:uid="{F83B9930-E9C6-4416-AB43-6A97813A9885}" uniqueName="149" name="category_0_146" queryTableFieldId="149" dataDxfId="133"/>
+    <tableColumn id="150" xr3:uid="{7D320660-2232-49E2-8C37-06F449791DFC}" uniqueName="150" name="category_0_147" queryTableFieldId="150" dataDxfId="132"/>
+    <tableColumn id="151" xr3:uid="{61B0B81B-085A-4C1B-B2BB-6CB63299D536}" uniqueName="151" name="category_0_148" queryTableFieldId="151" dataDxfId="131"/>
+    <tableColumn id="152" xr3:uid="{06E59A7F-FB04-466D-995B-6A24AEA4012E}" uniqueName="152" name="category_0_149" queryTableFieldId="152" dataDxfId="130"/>
+    <tableColumn id="153" xr3:uid="{48C3B7A2-A5F6-4DD7-950B-11CDD95FD103}" uniqueName="153" name="category_0_150" queryTableFieldId="153" dataDxfId="129"/>
+    <tableColumn id="154" xr3:uid="{C6F2927A-90E8-4B80-98DB-569E5C34620A}" uniqueName="154" name="category_0_151" queryTableFieldId="154" dataDxfId="128"/>
+    <tableColumn id="155" xr3:uid="{D30323A5-345B-4C5D-8D22-437552E322CA}" uniqueName="155" name="category_0_152" queryTableFieldId="155" dataDxfId="127"/>
+    <tableColumn id="156" xr3:uid="{D7CD590F-6D8A-41C3-9D9D-5C774AF2FCC0}" uniqueName="156" name="category_0_153" queryTableFieldId="156" dataDxfId="126"/>
+    <tableColumn id="157" xr3:uid="{59B9D8ED-58F4-46E1-8812-109686E0A292}" uniqueName="157" name="category_0_154" queryTableFieldId="157" dataDxfId="125"/>
+    <tableColumn id="158" xr3:uid="{256453C0-5914-4A84-B658-444E5E25A6C5}" uniqueName="158" name="category_0_155" queryTableFieldId="158" dataDxfId="124"/>
+    <tableColumn id="159" xr3:uid="{280165C3-489E-45C0-B6F7-9CC352ED9589}" uniqueName="159" name="category_0_156" queryTableFieldId="159" dataDxfId="123"/>
+    <tableColumn id="160" xr3:uid="{1A1493B7-2F1C-43DD-B0D2-385BC76B415B}" uniqueName="160" name="category_0_157" queryTableFieldId="160" dataDxfId="122"/>
+    <tableColumn id="161" xr3:uid="{12297AD0-9983-436A-8EAE-FC82ADADD901}" uniqueName="161" name="category_0_158" queryTableFieldId="161" dataDxfId="121"/>
+    <tableColumn id="162" xr3:uid="{B995C841-5151-4A39-895D-62172392F8C4}" uniqueName="162" name="category_0_159" queryTableFieldId="162" dataDxfId="120"/>
+    <tableColumn id="163" xr3:uid="{603F9DE4-1194-474D-B2F5-52C4B50A1914}" uniqueName="163" name="category_0_160" queryTableFieldId="163" dataDxfId="119"/>
+    <tableColumn id="164" xr3:uid="{671139CB-067C-459D-AC2D-50412E28C3C8}" uniqueName="164" name="category_0_161" queryTableFieldId="164" dataDxfId="118"/>
+    <tableColumn id="165" xr3:uid="{C111AACF-8352-4721-83BD-89F58E894E9D}" uniqueName="165" name="category_0_162" queryTableFieldId="165" dataDxfId="117"/>
+    <tableColumn id="166" xr3:uid="{3134600B-5063-4095-B09A-DBFB7DB15BBE}" uniqueName="166" name="category_0_163" queryTableFieldId="166" dataDxfId="116"/>
+    <tableColumn id="167" xr3:uid="{D29D7A81-B1D7-4853-B7D6-6B163A32C4A6}" uniqueName="167" name="category_0_164" queryTableFieldId="167" dataDxfId="115"/>
+    <tableColumn id="168" xr3:uid="{51980DFD-9A13-4D77-9DBD-7611E07EA4B8}" uniqueName="168" name="category_0_165" queryTableFieldId="168" dataDxfId="114"/>
+    <tableColumn id="169" xr3:uid="{D1ABAA3A-5928-4B98-B97B-6BACAFC2DDEB}" uniqueName="169" name="category_0_166" queryTableFieldId="169" dataDxfId="113"/>
+    <tableColumn id="170" xr3:uid="{DEA738D5-C743-4930-A7E0-EC56011999D8}" uniqueName="170" name="category_0_167" queryTableFieldId="170" dataDxfId="112"/>
+    <tableColumn id="171" xr3:uid="{8859040D-C76F-4951-9349-C3B908FD8816}" uniqueName="171" name="category_0_168" queryTableFieldId="171" dataDxfId="111"/>
+    <tableColumn id="172" xr3:uid="{00712A10-2C11-41CF-8821-FC0AA6940378}" uniqueName="172" name="category_0_169" queryTableFieldId="172" dataDxfId="110"/>
+    <tableColumn id="173" xr3:uid="{9598AA84-63EF-498D-BD19-693DEFA64C6C}" uniqueName="173" name="category_0_170" queryTableFieldId="173" dataDxfId="109"/>
+    <tableColumn id="174" xr3:uid="{4CEE6A2B-14A1-4414-81E0-7914C11E1CF1}" uniqueName="174" name="category_0_171" queryTableFieldId="174" dataDxfId="108"/>
+    <tableColumn id="175" xr3:uid="{526C1CB8-25BA-46AB-BF41-F18A7818D8E4}" uniqueName="175" name="category_0_172" queryTableFieldId="175" dataDxfId="107"/>
+    <tableColumn id="176" xr3:uid="{C84649E3-DF01-45A5-AC7C-50805B5F65D4}" uniqueName="176" name="category_0_173" queryTableFieldId="176" dataDxfId="106"/>
+    <tableColumn id="177" xr3:uid="{424DF038-0E83-40A6-9A88-FF026B78B9FE}" uniqueName="177" name="category_0_174" queryTableFieldId="177" dataDxfId="105"/>
+    <tableColumn id="178" xr3:uid="{E0638E2A-A244-4FD6-9ECC-DDFC622BBCFA}" uniqueName="178" name="category_0_175" queryTableFieldId="178" dataDxfId="104"/>
+    <tableColumn id="179" xr3:uid="{FA381E5D-8DB3-4562-8B4A-2820C5B260F0}" uniqueName="179" name="category_0_176" queryTableFieldId="179" dataDxfId="103"/>
+    <tableColumn id="180" xr3:uid="{326F27BB-204C-49ED-8690-4C730FDEBE2A}" uniqueName="180" name="category_0_177" queryTableFieldId="180" dataDxfId="102"/>
+    <tableColumn id="181" xr3:uid="{4BB12FC3-9FB6-47D2-91AC-A625777B7757}" uniqueName="181" name="category_0_178" queryTableFieldId="181" dataDxfId="101"/>
+    <tableColumn id="182" xr3:uid="{159C7F91-95C1-4905-BE00-30F028C27BBE}" uniqueName="182" name="category_0_179" queryTableFieldId="182" dataDxfId="100"/>
+    <tableColumn id="183" xr3:uid="{698EA7AC-649E-4D10-8C15-B973927A6C21}" uniqueName="183" name="category_0_180" queryTableFieldId="183" dataDxfId="99"/>
+    <tableColumn id="184" xr3:uid="{BC07C7D0-B212-43CF-AB3D-6FC5BE05D14F}" uniqueName="184" name="category_0_181" queryTableFieldId="184" dataDxfId="98"/>
+    <tableColumn id="185" xr3:uid="{2BD9D113-A59A-4327-84A1-CB9AB1A98D1B}" uniqueName="185" name="category_0_182" queryTableFieldId="185" dataDxfId="97"/>
+    <tableColumn id="186" xr3:uid="{0322B088-6C3B-481B-B7C6-EE3D04A6DE99}" uniqueName="186" name="category_0_183" queryTableFieldId="186" dataDxfId="96"/>
+    <tableColumn id="187" xr3:uid="{CBA252A0-9988-4CBD-B275-E3D46FB655CD}" uniqueName="187" name="category_0_184" queryTableFieldId="187" dataDxfId="95"/>
+    <tableColumn id="188" xr3:uid="{989AB360-8B86-431B-925B-E4EDCC1ABD95}" uniqueName="188" name="category_0_185" queryTableFieldId="188" dataDxfId="94"/>
+    <tableColumn id="189" xr3:uid="{BA643B07-5BB9-4B7C-9316-D0D3126C6E4B}" uniqueName="189" name="category_0_186" queryTableFieldId="189" dataDxfId="93"/>
+    <tableColumn id="190" xr3:uid="{A2FD4288-8449-4D52-93D1-FAEDECF3FD0F}" uniqueName="190" name="category_0_187" queryTableFieldId="190" dataDxfId="92"/>
+    <tableColumn id="191" xr3:uid="{681082A9-8776-47EC-A30B-4391524E7D5A}" uniqueName="191" name="category_0_188" queryTableFieldId="191" dataDxfId="91"/>
+    <tableColumn id="192" xr3:uid="{51D2D261-6A23-4AA0-AA6C-BF974DFD8CA7}" uniqueName="192" name="category_0_189" queryTableFieldId="192" dataDxfId="90"/>
+    <tableColumn id="193" xr3:uid="{36CFC702-709D-4435-BBEB-E56142FFB3B9}" uniqueName="193" name="category_0_190" queryTableFieldId="193" dataDxfId="89"/>
+    <tableColumn id="194" xr3:uid="{E0EA2894-9C64-4429-9CC9-F7AE184BFCEF}" uniqueName="194" name="category_0_191" queryTableFieldId="194" dataDxfId="88"/>
+    <tableColumn id="195" xr3:uid="{6471689E-0F39-4E1B-A737-1405623F9281}" uniqueName="195" name="category_0_192" queryTableFieldId="195" dataDxfId="87"/>
+    <tableColumn id="196" xr3:uid="{036C3BBD-EDEC-4011-9CFD-2B5833DBDAB8}" uniqueName="196" name="category_0_193" queryTableFieldId="196" dataDxfId="86"/>
+    <tableColumn id="197" xr3:uid="{54E0E211-94E6-48A6-BD98-6B42BB461F68}" uniqueName="197" name="category_0_194" queryTableFieldId="197" dataDxfId="85"/>
+    <tableColumn id="198" xr3:uid="{0C9E5D4D-240B-443C-969B-CF004DD399A4}" uniqueName="198" name="category_0_195" queryTableFieldId="198" dataDxfId="84"/>
+    <tableColumn id="199" xr3:uid="{B01F73E8-1CEA-40C7-B77B-10F734533C47}" uniqueName="199" name="category_0_196" queryTableFieldId="199" dataDxfId="83"/>
+    <tableColumn id="200" xr3:uid="{C80D9919-CBAE-439E-A8A8-3D0F5DC076B0}" uniqueName="200" name="category_0_197" queryTableFieldId="200" dataDxfId="82"/>
+    <tableColumn id="201" xr3:uid="{CE5F6F0B-6726-467F-A706-EA04206FD04A}" uniqueName="201" name="category_0_198" queryTableFieldId="201" dataDxfId="81"/>
+    <tableColumn id="202" xr3:uid="{386E350B-782F-434B-8F81-22A0DAC53CDF}" uniqueName="202" name="category_0_199" queryTableFieldId="202" dataDxfId="80"/>
+    <tableColumn id="203" xr3:uid="{66C03546-E254-4872-B651-65B894D8C076}" uniqueName="203" name="category_0_200" queryTableFieldId="203" dataDxfId="79"/>
+    <tableColumn id="204" xr3:uid="{306A43D5-E5D3-42CB-8DBF-5B9A543D2FDC}" uniqueName="204" name="category_0_201" queryTableFieldId="204" dataDxfId="78"/>
+    <tableColumn id="205" xr3:uid="{06DA8000-629F-4F36-85B2-BE14DCB2D013}" uniqueName="205" name="category_0_202" queryTableFieldId="205" dataDxfId="77"/>
+    <tableColumn id="206" xr3:uid="{E34793A3-FBC6-4484-BAEA-3F66A26E0B07}" uniqueName="206" name="category_0_203" queryTableFieldId="206" dataDxfId="76"/>
+    <tableColumn id="207" xr3:uid="{9AAA0B6A-9A7A-48A3-A81B-66EF5304019F}" uniqueName="207" name="category_0_204" queryTableFieldId="207" dataDxfId="75"/>
+    <tableColumn id="208" xr3:uid="{89785D62-3645-4A87-AA8F-DFA04296C147}" uniqueName="208" name="category_0_205" queryTableFieldId="208" dataDxfId="74"/>
+    <tableColumn id="209" xr3:uid="{BB1B3ACB-3D8E-41D8-8B6C-47CC0336603A}" uniqueName="209" name="category_0_206" queryTableFieldId="209" dataDxfId="73"/>
+    <tableColumn id="210" xr3:uid="{212B9AE8-04C3-4963-BEB4-9BB588887BE2}" uniqueName="210" name="category_0_207" queryTableFieldId="210" dataDxfId="72"/>
+    <tableColumn id="211" xr3:uid="{86D83025-7BF8-45B5-AB2D-00362E5D9338}" uniqueName="211" name="category_0_208" queryTableFieldId="211" dataDxfId="71"/>
+    <tableColumn id="212" xr3:uid="{A9203A58-4876-4B95-9FA6-2355EFE2A8C2}" uniqueName="212" name="category_0_209" queryTableFieldId="212" dataDxfId="70"/>
+    <tableColumn id="213" xr3:uid="{14DEE19D-47F9-46A1-9593-A8E9E5312973}" uniqueName="213" name="category_0_210" queryTableFieldId="213" dataDxfId="69"/>
+    <tableColumn id="214" xr3:uid="{C0374F91-F97B-489C-9D4B-D4C72CDE0E62}" uniqueName="214" name="category_0_211" queryTableFieldId="214" dataDxfId="68"/>
+    <tableColumn id="215" xr3:uid="{D7D29782-1C6A-4A4E-9AA6-CE2F8977A84F}" uniqueName="215" name="category_0_212" queryTableFieldId="215" dataDxfId="67"/>
+    <tableColumn id="216" xr3:uid="{4B5BBFCC-329D-44A8-B8D6-ADE57FAC2723}" uniqueName="216" name="category_0_213" queryTableFieldId="216" dataDxfId="66"/>
+    <tableColumn id="217" xr3:uid="{D06785EE-9CD0-4904-B871-1E01C61D6D65}" uniqueName="217" name="category_0_214" queryTableFieldId="217" dataDxfId="65"/>
+    <tableColumn id="218" xr3:uid="{4DD85FEC-C5EE-4BC9-9D11-1C4D61C7E32D}" uniqueName="218" name="category_0_215" queryTableFieldId="218" dataDxfId="64"/>
+    <tableColumn id="219" xr3:uid="{905CB13B-2447-4443-8F63-AFE3707D2CA5}" uniqueName="219" name="category_0_216" queryTableFieldId="219" dataDxfId="63"/>
+    <tableColumn id="220" xr3:uid="{0315DDC6-1AD7-4A66-BFBF-45A774A6088C}" uniqueName="220" name="category_0_217" queryTableFieldId="220" dataDxfId="62"/>
+    <tableColumn id="221" xr3:uid="{08D9E420-D0C0-4690-A2E2-AEB9D5DC7D28}" uniqueName="221" name="category_0_218" queryTableFieldId="221" dataDxfId="61"/>
+    <tableColumn id="222" xr3:uid="{9E2D2A5E-8BE1-4B96-93F3-13F5FD74276F}" uniqueName="222" name="category_0_219" queryTableFieldId="222" dataDxfId="60"/>
+    <tableColumn id="223" xr3:uid="{D0CECD10-D652-4276-B8A7-A603FD87A2A7}" uniqueName="223" name="category_0_220" queryTableFieldId="223" dataDxfId="59"/>
+    <tableColumn id="224" xr3:uid="{445A3CD0-57AD-4722-8F53-8802F67B299B}" uniqueName="224" name="category_0_221" queryTableFieldId="224" dataDxfId="58"/>
+    <tableColumn id="225" xr3:uid="{3681A068-9C55-497B-8318-462D5180C03A}" uniqueName="225" name="category_0_222" queryTableFieldId="225" dataDxfId="57"/>
+    <tableColumn id="226" xr3:uid="{89BE3FB9-FC3C-4D8A-8E33-DF26BD96CB61}" uniqueName="226" name="category_0_223" queryTableFieldId="226" dataDxfId="56"/>
+    <tableColumn id="227" xr3:uid="{0CA0767C-48DE-4972-93B6-A9B642202929}" uniqueName="227" name="category_0_224" queryTableFieldId="227" dataDxfId="55"/>
+    <tableColumn id="228" xr3:uid="{BB7E1D39-FCC6-4133-920B-F3F422155864}" uniqueName="228" name="category_0_225" queryTableFieldId="228" dataDxfId="54"/>
+    <tableColumn id="229" xr3:uid="{E9D15B0C-C587-4F02-8BD1-CA1873AFC811}" uniqueName="229" name="category_0_226" queryTableFieldId="229" dataDxfId="53"/>
+    <tableColumn id="230" xr3:uid="{605373E9-6439-4747-85CD-D6AA18367F76}" uniqueName="230" name="category_0_227" queryTableFieldId="230" dataDxfId="52"/>
+    <tableColumn id="231" xr3:uid="{118F4684-0D6C-4C19-B4C8-9079BC63676B}" uniqueName="231" name="category_0_228" queryTableFieldId="231" dataDxfId="51"/>
+    <tableColumn id="232" xr3:uid="{41D52BAF-B9D9-4788-B436-9F3F4A05EFED}" uniqueName="232" name="category_0_229" queryTableFieldId="232" dataDxfId="50"/>
+    <tableColumn id="233" xr3:uid="{C2947DAD-C292-42FB-95CB-775A9806B587}" uniqueName="233" name="category_0_230" queryTableFieldId="233" dataDxfId="49"/>
+    <tableColumn id="234" xr3:uid="{524A1DE5-722B-400D-B331-58E5843B347B}" uniqueName="234" name="category_0_231" queryTableFieldId="234" dataDxfId="48"/>
+    <tableColumn id="235" xr3:uid="{DC5EE1C4-C935-4B32-9D93-C51B24562F6F}" uniqueName="235" name="category_0_232" queryTableFieldId="235" dataDxfId="47"/>
+    <tableColumn id="236" xr3:uid="{765052F0-8077-4E98-A869-8621CDF968F1}" uniqueName="236" name="category_0_233" queryTableFieldId="236" dataDxfId="46"/>
+    <tableColumn id="237" xr3:uid="{A71488B5-68CA-44FA-8529-B56F55149811}" uniqueName="237" name="category_0_234" queryTableFieldId="237" dataDxfId="45"/>
+    <tableColumn id="238" xr3:uid="{3DB73ED0-B379-490E-98FE-0385AC469AE5}" uniqueName="238" name="category_0_235" queryTableFieldId="238" dataDxfId="44"/>
+    <tableColumn id="239" xr3:uid="{E9728589-B36B-416C-B103-A478546692CF}" uniqueName="239" name="category_0_236" queryTableFieldId="239" dataDxfId="43"/>
+    <tableColumn id="240" xr3:uid="{6138961E-2468-4D81-9CB6-73853B9A22DB}" uniqueName="240" name="category_0_237" queryTableFieldId="240" dataDxfId="42"/>
+    <tableColumn id="241" xr3:uid="{018FD3D7-6D31-42AD-89F7-DE7C822BBA6B}" uniqueName="241" name="category_0_238" queryTableFieldId="241" dataDxfId="41"/>
+    <tableColumn id="242" xr3:uid="{CDAAF8A9-20AC-42AB-9F25-81BF289CCF18}" uniqueName="242" name="category_0_239" queryTableFieldId="242" dataDxfId="40"/>
+    <tableColumn id="243" xr3:uid="{E0CAA930-B4F4-48F7-BABC-E706E396D859}" uniqueName="243" name="category_0_240" queryTableFieldId="243" dataDxfId="39"/>
+    <tableColumn id="244" xr3:uid="{9086478A-8F86-41F7-8151-39D393B8A765}" uniqueName="244" name="category_0_241" queryTableFieldId="244" dataDxfId="38"/>
+    <tableColumn id="245" xr3:uid="{0A1BF71F-6306-4818-A055-66833C56A150}" uniqueName="245" name="category_0_242" queryTableFieldId="245" dataDxfId="37"/>
+    <tableColumn id="246" xr3:uid="{B66805AB-743E-492C-8DA2-3B75F7178FFB}" uniqueName="246" name="category_0_243" queryTableFieldId="246" dataDxfId="36"/>
+    <tableColumn id="247" xr3:uid="{801977F1-B9B0-4374-911B-4AC990BF800B}" uniqueName="247" name="category_0_244" queryTableFieldId="247" dataDxfId="35"/>
+    <tableColumn id="248" xr3:uid="{2A8EADD0-9EEC-47A7-8C61-E223420A09DB}" uniqueName="248" name="category_0_245" queryTableFieldId="248" dataDxfId="34"/>
+    <tableColumn id="249" xr3:uid="{7A3C1826-43F9-4012-B1B4-BE83AA03F142}" uniqueName="249" name="category_0_246" queryTableFieldId="249" dataDxfId="33"/>
+    <tableColumn id="250" xr3:uid="{782DAF35-E6A2-437F-B1F3-98974FC1BD77}" uniqueName="250" name="category_0_247" queryTableFieldId="250" dataDxfId="32"/>
+    <tableColumn id="251" xr3:uid="{ABDAB5D7-A034-4551-A252-BF7551A25120}" uniqueName="251" name="category_0_248" queryTableFieldId="251" dataDxfId="31"/>
+    <tableColumn id="252" xr3:uid="{F0230D57-D5C1-4FED-B020-2DDB2F5E24DB}" uniqueName="252" name="category_0_249" queryTableFieldId="252" dataDxfId="30"/>
+    <tableColumn id="253" xr3:uid="{5F22D86E-5763-43F5-947D-D285925D3118}" uniqueName="253" name="category_0_250" queryTableFieldId="253" dataDxfId="29"/>
+    <tableColumn id="254" xr3:uid="{14448D19-07D3-4D75-826D-40B981E7EE27}" uniqueName="254" name="category_0_251" queryTableFieldId="254" dataDxfId="28"/>
+    <tableColumn id="255" xr3:uid="{A1D7084A-7767-4466-9717-0E1D5D2E6752}" uniqueName="255" name="category_0_252" queryTableFieldId="255" dataDxfId="27"/>
+    <tableColumn id="256" xr3:uid="{10CAFE87-B618-45BA-9CC7-8FB5235B08F1}" uniqueName="256" name="category_0_253" queryTableFieldId="256" dataDxfId="26"/>
+    <tableColumn id="257" xr3:uid="{7C859875-1533-4BFB-9D09-C60B59B6DF58}" uniqueName="257" name="category_0_254" queryTableFieldId="257" dataDxfId="25"/>
+    <tableColumn id="258" xr3:uid="{5D06DDAA-4D82-4C94-81D0-D1A0E7AE21A0}" uniqueName="258" name="category_0_255" queryTableFieldId="258" dataDxfId="24"/>
+    <tableColumn id="259" xr3:uid="{ECB02DD2-C2FA-452B-B79E-E6CAC171B68D}" uniqueName="259" name="category_0_256" queryTableFieldId="259" dataDxfId="23"/>
+    <tableColumn id="260" xr3:uid="{2D8175B5-CE29-40AC-82A0-D8EF365587CE}" uniqueName="260" name="category_0_257" queryTableFieldId="260" dataDxfId="22"/>
+    <tableColumn id="261" xr3:uid="{97928355-2740-45BC-823F-8DAB3828946F}" uniqueName="261" name="category_0_258" queryTableFieldId="261" dataDxfId="21"/>
+    <tableColumn id="262" xr3:uid="{FB7852F6-5CC8-41E1-BC2B-7116EC360003}" uniqueName="262" name="category_0_259" queryTableFieldId="262" dataDxfId="20"/>
+    <tableColumn id="263" xr3:uid="{A6AE56CC-9559-4A51-8DEE-B93358EB7B0E}" uniqueName="263" name="category_0_260" queryTableFieldId="263" dataDxfId="19"/>
+    <tableColumn id="264" xr3:uid="{D147E918-E32A-4278-8CE7-3460C1D111BE}" uniqueName="264" name="category_0_261" queryTableFieldId="264" dataDxfId="18"/>
+    <tableColumn id="265" xr3:uid="{88C1D373-8FD6-44AE-BF85-EC157E925C3A}" uniqueName="265" name="category_0_262" queryTableFieldId="265" dataDxfId="17"/>
+    <tableColumn id="266" xr3:uid="{18AE93A8-3E14-49B8-813B-30BDE9839072}" uniqueName="266" name="category_0_263" queryTableFieldId="266" dataDxfId="16"/>
+    <tableColumn id="267" xr3:uid="{E1935097-BC1A-4C4A-AC79-AAAA014C5C85}" uniqueName="267" name="category_0_264" queryTableFieldId="267" dataDxfId="15"/>
+    <tableColumn id="268" xr3:uid="{5BC2F9AB-4AC7-47DC-99EC-E558D3197425}" uniqueName="268" name="category_0_265" queryTableFieldId="268" dataDxfId="14"/>
+    <tableColumn id="269" xr3:uid="{5411B7CE-5778-4099-AEEE-69BC851AEFDC}" uniqueName="269" name="category_0_266" queryTableFieldId="269" dataDxfId="13"/>
+    <tableColumn id="270" xr3:uid="{ACBB3DAE-D6C4-4FF8-81EA-2F32D5343DF8}" uniqueName="270" name="category_0_267" queryTableFieldId="270" dataDxfId="12"/>
+    <tableColumn id="271" xr3:uid="{184C92A4-8B59-4527-9A98-31800814F8D3}" uniqueName="271" name="category_0_268" queryTableFieldId="271" dataDxfId="11"/>
+    <tableColumn id="272" xr3:uid="{1C39DA70-2A63-4F5F-9FD2-F50BC90915BA}" uniqueName="272" name="category_0_269" queryTableFieldId="272" dataDxfId="10"/>
+    <tableColumn id="273" xr3:uid="{6AFA703F-572D-449B-B719-F0A04D1FC6B4}" uniqueName="273" name="category_0_270" queryTableFieldId="273" dataDxfId="9"/>
+    <tableColumn id="274" xr3:uid="{073B1A39-AF56-40BC-BFFF-09EBE1FFD1F7}" uniqueName="274" name="category_0_271" queryTableFieldId="274" dataDxfId="8"/>
+    <tableColumn id="275" xr3:uid="{58871A61-CBED-45A8-9E40-6C6248E3BB6F}" uniqueName="275" name="category_0_272" queryTableFieldId="275" dataDxfId="7"/>
+    <tableColumn id="276" xr3:uid="{A3691FA9-D125-4A6A-8E5F-240662A122A6}" uniqueName="276" name="category_0_273" queryTableFieldId="276" dataDxfId="6"/>
+    <tableColumn id="277" xr3:uid="{EB1476DD-0CFF-46F4-A093-05C574E10ADF}" uniqueName="277" name="category_0_274" queryTableFieldId="277" dataDxfId="5"/>
+    <tableColumn id="278" xr3:uid="{E61BAAC6-2DBC-49CC-9882-5CC74C91FC70}" uniqueName="278" name="category_0_275" queryTableFieldId="278" dataDxfId="4"/>
+    <tableColumn id="279" xr3:uid="{D944E557-6BFD-4B6C-A415-EC360D743941}" uniqueName="279" name="category_0_276" queryTableFieldId="279" dataDxfId="3"/>
+    <tableColumn id="280" xr3:uid="{3AD881D4-6FC3-4A55-A901-B7137DC6C756}" uniqueName="280" name="category_0_277" queryTableFieldId="280" dataDxfId="2"/>
+    <tableColumn id="281" xr3:uid="{AA4C1887-0C74-47FE-A4A5-CB98D56468A0}" uniqueName="281" name="category_0_278" queryTableFieldId="281" dataDxfId="1"/>
+    <tableColumn id="282" xr3:uid="{DC568163-E16B-4BCE-907D-47CC5F72F0FC}" uniqueName="282" name="category_0_279" queryTableFieldId="282" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10578,199 +10581,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDECD1A5-1D11-47A1-BBFF-FD91137070BA}">
   <dimension ref="A1:LD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BR4" sqref="BR4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" customWidth="1"/>
-    <col min="10" max="10" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
-    <col min="16" max="16" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" customWidth="1"/>
-    <col min="20" max="20" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
-    <col min="22" max="22" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="20" max="20" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
     <col min="24" max="24" width="80" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" customWidth="1"/>
-    <col min="26" max="26" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.88671875" customWidth="1"/>
-    <col min="28" max="28" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" customWidth="1"/>
-    <col min="30" max="30" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.33203125" customWidth="1"/>
-    <col min="32" max="32" width="77.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.5546875" customWidth="1"/>
-    <col min="34" max="34" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" customWidth="1"/>
+    <col min="26" max="26" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" customWidth="1"/>
+    <col min="28" max="28" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.28515625" customWidth="1"/>
+    <col min="32" max="32" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" customWidth="1"/>
+    <col min="34" max="34" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20" customWidth="1"/>
-    <col min="36" max="36" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.33203125" customWidth="1"/>
-    <col min="38" max="38" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.77734375" customWidth="1"/>
-    <col min="40" max="40" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.88671875" customWidth="1"/>
-    <col min="42" max="42" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.5546875" customWidth="1"/>
-    <col min="44" max="44" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" customWidth="1"/>
-    <col min="46" max="46" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.109375" customWidth="1"/>
-    <col min="48" max="48" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.21875" customWidth="1"/>
-    <col min="50" max="50" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.6640625" customWidth="1"/>
-    <col min="52" max="52" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.44140625" customWidth="1"/>
-    <col min="54" max="54" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="26.5546875" customWidth="1"/>
-    <col min="56" max="56" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="21.109375" customWidth="1"/>
-    <col min="58" max="58" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.44140625" customWidth="1"/>
-    <col min="60" max="60" width="77.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.33203125" customWidth="1"/>
-    <col min="62" max="62" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.88671875" customWidth="1"/>
-    <col min="64" max="64" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="27.77734375" customWidth="1"/>
-    <col min="66" max="66" width="65.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.44140625" customWidth="1"/>
-    <col min="68" max="68" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="25.77734375" customWidth="1"/>
-    <col min="70" max="70" width="65.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="73" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="82" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="74.21875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="70.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="89" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="97" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="72.44140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="67.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" customWidth="1"/>
+    <col min="38" max="38" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" customWidth="1"/>
+    <col min="40" max="40" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.85546875" customWidth="1"/>
+    <col min="42" max="42" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" customWidth="1"/>
+    <col min="44" max="44" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" customWidth="1"/>
+    <col min="46" max="46" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.28515625" customWidth="1"/>
+    <col min="50" max="50" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="52" max="52" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.42578125" customWidth="1"/>
+    <col min="54" max="54" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.5703125" customWidth="1"/>
+    <col min="56" max="56" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="21.140625" customWidth="1"/>
+    <col min="58" max="58" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.42578125" customWidth="1"/>
+    <col min="60" max="60" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.28515625" customWidth="1"/>
+    <col min="62" max="62" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.85546875" customWidth="1"/>
+    <col min="64" max="64" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27.7109375" customWidth="1"/>
+    <col min="66" max="66" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.42578125" customWidth="1"/>
+    <col min="68" max="68" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25.7109375" customWidth="1"/>
+    <col min="70" max="70" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="73" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="82" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="89" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="97" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="47" bestFit="1" customWidth="1"/>
-    <col min="106" max="115" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="54.77734375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="78.88671875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="66.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="73.6640625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="77.33203125" bestFit="1" customWidth="1"/>
-    <col min="124" max="131" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="137" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="139" max="151" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="68.77734375" bestFit="1" customWidth="1"/>
-    <col min="153" max="154" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="156" max="159" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="161" max="166" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="76.33203125" bestFit="1" customWidth="1"/>
-    <col min="170" max="190" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="74.5546875" bestFit="1" customWidth="1"/>
-    <col min="200" max="206" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="209" max="211" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="106" max="115" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="124" max="131" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="135" max="137" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="139" max="151" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="154" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="159" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="161" max="166" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="170" max="190" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="200" max="206" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="209" max="211" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="77" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="67.6640625" bestFit="1" customWidth="1"/>
-    <col min="215" max="216" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="59.88671875" bestFit="1" customWidth="1"/>
-    <col min="219" max="228" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="61.77734375" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="241" max="242" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="246" max="248" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="71.77734375" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="256" max="257" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="75.109375" bestFit="1" customWidth="1"/>
-    <col min="260" max="261" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="75.109375" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="61.77734375" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="267" max="270" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="54.77734375" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="273" max="279" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="282" max="288" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="291" max="293" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="74.88671875" bestFit="1" customWidth="1"/>
-    <col min="295" max="300" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="74.21875" bestFit="1" customWidth="1"/>
-    <col min="302" max="313" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="215" max="216" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="219" max="228" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="241" max="242" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="246" max="248" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="256" max="257" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="260" max="261" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="267" max="270" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="273" max="279" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="282" max="288" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="291" max="293" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="295" max="300" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="302" max="313" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11919,7 +11922,9 @@
       <c r="BN2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BO2" s="1"/>
+      <c r="BO2" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP2" s="1" t="s">
         <v>284</v>
       </c>
@@ -12668,7 +12673,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12765,7 +12770,9 @@
       <c r="AF3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH3" s="1" t="s">
         <v>285</v>
       </c>
@@ -12865,7 +12872,9 @@
       <c r="BN3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BO3" s="1"/>
+      <c r="BO3" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP3" s="1" t="s">
         <v>292</v>
       </c>
@@ -13614,7 +13623,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13711,7 +13720,9 @@
       <c r="AF4" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH4" s="1" t="s">
         <v>293</v>
       </c>
@@ -13811,7 +13822,9 @@
       <c r="BN4" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BO4" s="1"/>
+      <c r="BO4" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP4" s="1" t="s">
         <v>331</v>
       </c>
@@ -14560,21 +14573,28 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>2875</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>548</v>
       </c>
@@ -14584,7 +14604,9 @@
       <c r="J5" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>550</v>
       </c>
@@ -14594,15 +14616,21 @@
       <c r="N5" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="T5" s="1" t="s">
         <v>554</v>
       </c>
@@ -14612,7 +14640,9 @@
       <c r="V5" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X5" s="1" t="s">
         <v>548</v>
       </c>
@@ -14622,7 +14652,9 @@
       <c r="Z5" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AA5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AB5" s="1" t="s">
         <v>557</v>
       </c>
@@ -14638,7 +14670,9 @@
       <c r="AF5" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AG5" s="1"/>
+      <c r="AG5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH5" s="1" t="s">
         <v>559</v>
       </c>
@@ -14648,7 +14682,9 @@
       <c r="AJ5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="AK5" s="1"/>
+      <c r="AK5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AL5" s="1" t="s">
         <v>561</v>
       </c>
@@ -14658,7 +14694,9 @@
       <c r="AN5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="AO5" s="1"/>
+      <c r="AO5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP5" s="1" t="s">
         <v>563</v>
       </c>
@@ -14698,15 +14736,21 @@
       <c r="BB5" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BD5" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="BE5" s="1"/>
+      <c r="BE5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BF5" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BH5" s="1" t="s">
         <v>570</v>
       </c>
@@ -14722,15 +14766,21 @@
       <c r="BL5" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="BM5" s="1"/>
+      <c r="BM5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN5" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="BO5" s="1"/>
+      <c r="BO5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP5" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="BQ5" s="1"/>
+      <c r="BQ5" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR5" s="1" t="s">
         <v>575</v>
       </c>
@@ -15473,7 +15523,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15486,7 +15536,9 @@
       <c r="D6" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>706</v>
       </c>
@@ -15502,11 +15554,15 @@
       <c r="J6" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="N6" s="1" t="s">
         <v>710</v>
       </c>
@@ -15522,7 +15578,9 @@
       <c r="R6" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="T6" s="1" t="s">
         <v>712</v>
       </c>
@@ -15544,7 +15602,9 @@
       <c r="Z6" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AB6" s="1" t="s">
         <v>716</v>
       </c>
@@ -15560,7 +15620,9 @@
       <c r="AF6" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH6" s="1" t="s">
         <v>584</v>
       </c>
@@ -15582,7 +15644,9 @@
       <c r="AN6" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="AO6" s="1"/>
+      <c r="AO6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP6" s="1" t="s">
         <v>722</v>
       </c>
@@ -15604,11 +15668,15 @@
       <c r="AV6" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="AW6" s="1"/>
+      <c r="AW6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX6" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="AY6" s="1"/>
+      <c r="AY6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ6" s="1" t="s">
         <v>710</v>
       </c>
@@ -15618,7 +15686,9 @@
       <c r="BB6" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BD6" s="1" t="s">
         <v>727</v>
       </c>
@@ -15628,7 +15698,9 @@
       <c r="BF6" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="BG6" s="1"/>
+      <c r="BG6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BH6" s="1" t="s">
         <v>728</v>
       </c>
@@ -15644,15 +15716,21 @@
       <c r="BL6" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="BM6" s="1"/>
+      <c r="BM6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN6" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="BO6" s="1"/>
+      <c r="BO6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP6" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="BQ6" s="1"/>
+      <c r="BQ6" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR6" s="1" t="s">
         <v>732</v>
       </c>
@@ -16395,21 +16473,28 @@
         <v>885</v>
       </c>
     </row>
-    <row r="7" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>2875</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>888</v>
       </c>
@@ -16419,7 +16504,9 @@
       <c r="J7" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L7" s="1" t="s">
         <v>890</v>
       </c>
@@ -16447,11 +16534,15 @@
       <c r="T7" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V7" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X7" s="1" t="s">
         <v>550</v>
       </c>
@@ -16461,11 +16552,15 @@
       <c r="Z7" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AB7" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="AC7" s="1"/>
+      <c r="AC7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD7" s="1" t="s">
         <v>895</v>
       </c>
@@ -16475,7 +16570,9 @@
       <c r="AF7" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH7" s="1" t="s">
         <v>899</v>
       </c>
@@ -16509,7 +16606,9 @@
       <c r="AR7" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="AS7" s="1"/>
+      <c r="AS7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AT7" s="1" t="s">
         <v>904</v>
       </c>
@@ -16519,11 +16618,15 @@
       <c r="AV7" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="AW7" s="1"/>
+      <c r="AW7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX7" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="AY7" s="1"/>
+      <c r="AY7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ7" s="1" t="s">
         <v>891</v>
       </c>
@@ -16533,7 +16636,9 @@
       <c r="BB7" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BD7" s="1" t="s">
         <v>907</v>
       </c>
@@ -16543,7 +16648,9 @@
       <c r="BF7" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BH7" s="1" t="s">
         <v>909</v>
       </c>
@@ -16565,11 +16672,15 @@
       <c r="BN7" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="BO7" s="1"/>
+      <c r="BO7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP7" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="BQ7" s="1"/>
+      <c r="BQ7" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR7" s="1" t="s">
         <v>914</v>
       </c>
@@ -17312,7 +17423,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="8" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17325,11 +17436,15 @@
       <c r="D8" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17339,7 +17454,9 @@
       <c r="J8" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17355,7 +17472,9 @@
       <c r="P8" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="R8" s="1" t="s">
         <v>920</v>
       </c>
@@ -17371,7 +17490,9 @@
       <c r="V8" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X8" s="1" t="s">
         <v>709</v>
       </c>
@@ -17399,7 +17520,9 @@
       <c r="AF8" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="AG8" s="1"/>
+      <c r="AG8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH8" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17427,7 +17550,9 @@
       <c r="AP8" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="AQ8" s="1"/>
+      <c r="AQ8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR8" s="1" t="s">
         <v>1087</v>
       </c>
@@ -17443,7 +17568,9 @@
       <c r="AV8" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="AW8" s="1"/>
+      <c r="AW8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX8" s="1" t="s">
         <v>1090</v>
       </c>
@@ -17453,19 +17580,27 @@
       <c r="AZ8" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="BA8" s="1"/>
+      <c r="BA8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BB8" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BD8" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="BE8" s="1"/>
+      <c r="BE8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BF8" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="BG8" s="1"/>
+      <c r="BG8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BH8" s="1" t="s">
         <v>1093</v>
       </c>
@@ -17487,11 +17622,15 @@
       <c r="BN8" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="BO8" s="1"/>
+      <c r="BO8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP8" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="BQ8" s="1"/>
+      <c r="BQ8" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR8" s="1" t="s">
         <v>1098</v>
       </c>
@@ -18234,7 +18373,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="9" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -18265,7 +18404,9 @@
       <c r="J9" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>722</v>
       </c>
@@ -18293,11 +18434,15 @@
       <c r="T9" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V9" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X9" s="1" t="s">
         <v>890</v>
       </c>
@@ -18313,7 +18458,9 @@
       <c r="AB9" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="AC9" s="1"/>
+      <c r="AC9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD9" s="1" t="s">
         <v>1014</v>
       </c>
@@ -18323,7 +18470,9 @@
       <c r="AF9" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="AG9" s="1"/>
+      <c r="AG9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH9" s="1" t="s">
         <v>1100</v>
       </c>
@@ -18345,7 +18494,9 @@
       <c r="AN9" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="AO9" s="1"/>
+      <c r="AO9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP9" s="1" t="s">
         <v>1242</v>
       </c>
@@ -18367,7 +18518,9 @@
       <c r="AV9" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="AW9" s="1"/>
+      <c r="AW9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX9" s="1" t="s">
         <v>1243</v>
       </c>
@@ -18383,7 +18536,9 @@
       <c r="BB9" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BD9" s="1" t="s">
         <v>1245</v>
       </c>
@@ -18417,11 +18572,15 @@
       <c r="BN9" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="BO9" s="1"/>
+      <c r="BO9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP9" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="BQ9" s="1"/>
+      <c r="BQ9" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR9" s="1" t="s">
         <v>1249</v>
       </c>
@@ -19164,7 +19323,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="10" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19225,11 +19384,15 @@
       <c r="T10" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V10" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X10" s="1" t="s">
         <v>1075</v>
       </c>
@@ -19239,11 +19402,15 @@
       <c r="Z10" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AA10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AB10" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="AC10" s="1"/>
+      <c r="AC10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD10" s="1" t="s">
         <v>1391</v>
       </c>
@@ -19253,7 +19420,9 @@
       <c r="AF10" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="AG10" s="1"/>
+      <c r="AG10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH10" s="1" t="s">
         <v>294</v>
       </c>
@@ -19269,11 +19438,15 @@
       <c r="AL10" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="AM10" s="1"/>
+      <c r="AM10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AN10" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="AO10" s="1"/>
+      <c r="AO10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP10" s="1" t="s">
         <v>709</v>
       </c>
@@ -19293,7 +19466,9 @@
       <c r="AV10" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AW10" s="1"/>
+      <c r="AW10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX10" s="1" t="s">
         <v>1398</v>
       </c>
@@ -19307,7 +19482,9 @@
       <c r="BB10" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BD10" s="1" t="s">
         <v>1399</v>
       </c>
@@ -19341,11 +19518,15 @@
       <c r="BN10" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="BO10" s="1"/>
+      <c r="BO10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP10" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="BQ10" s="1"/>
+      <c r="BQ10" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR10" s="1" t="s">
         <v>1405</v>
       </c>
@@ -20088,13 +20269,16 @@
         <v>877</v>
       </c>
     </row>
-    <row r="11" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>2875</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>920</v>
       </c>
@@ -20104,7 +20288,9 @@
       <c r="F11" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>895</v>
       </c>
@@ -20126,7 +20312,9 @@
       <c r="N11" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>1528</v>
       </c>
@@ -20136,15 +20324,21 @@
       <c r="R11" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="T11" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V11" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X11" s="1" t="s">
         <v>722</v>
       </c>
@@ -20160,7 +20354,9 @@
       <c r="AB11" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="AC11" s="1"/>
+      <c r="AC11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD11" s="1" t="s">
         <v>1530</v>
       </c>
@@ -20170,7 +20366,9 @@
       <c r="AF11" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="AG11" s="1"/>
+      <c r="AG11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH11" s="1" t="s">
         <v>295</v>
       </c>
@@ -20214,7 +20412,9 @@
       <c r="AV11" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="AW11" s="1"/>
+      <c r="AW11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX11" s="1" t="s">
         <v>1539</v>
       </c>
@@ -20240,11 +20440,15 @@
       <c r="BF11" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BH11" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="BI11" s="1"/>
+      <c r="BI11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ11" s="1" t="s">
         <v>1540</v>
       </c>
@@ -20254,15 +20458,21 @@
       <c r="BL11" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="BM11" s="1"/>
+      <c r="BM11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN11" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="BO11" s="1"/>
+      <c r="BO11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP11" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="BQ11" s="1"/>
+      <c r="BQ11" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR11" s="1" t="s">
         <v>1542</v>
       </c>
@@ -21005,7 +21215,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="12" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21018,7 +21228,9 @@
       <c r="D12" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>1649</v>
       </c>
@@ -21028,7 +21240,9 @@
       <c r="H12" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>920</v>
       </c>
@@ -21092,11 +21306,15 @@
       <c r="AD12" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="AE12" s="1"/>
+      <c r="AE12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF12" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH12" s="1" t="s">
         <v>1028</v>
       </c>
@@ -21134,11 +21352,15 @@
       <c r="AT12" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AU12" s="1"/>
+      <c r="AU12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AV12" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="AW12" s="1"/>
+      <c r="AW12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX12" s="1" t="s">
         <v>1659</v>
       </c>
@@ -21168,7 +21390,9 @@
       <c r="BH12" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="BI12" s="1"/>
+      <c r="BI12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ12" s="1" t="s">
         <v>1663</v>
       </c>
@@ -21178,15 +21402,21 @@
       <c r="BL12" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="BM12" s="1"/>
+      <c r="BM12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN12" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="BO12" s="1"/>
+      <c r="BO12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP12" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="BQ12" s="1"/>
+      <c r="BQ12" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR12" s="1" t="s">
         <v>1666</v>
       </c>
@@ -21929,7 +22159,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21966,7 +22196,9 @@
       <c r="L13" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>920</v>
       </c>
@@ -21976,7 +22208,9 @@
       <c r="P13" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="R13" s="1" t="s">
         <v>1545</v>
       </c>
@@ -22020,11 +22254,15 @@
       <c r="AF13" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AH13" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AJ13" s="1" t="s">
         <v>920</v>
       </c>
@@ -22056,11 +22294,15 @@
       <c r="AT13" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AU13" s="1"/>
+      <c r="AU13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AV13" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="AW13" s="1"/>
+      <c r="AW13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX13" s="1" t="s">
         <v>1768</v>
       </c>
@@ -22074,7 +22316,9 @@
       <c r="BB13" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BC13" s="1"/>
+      <c r="BC13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BD13" s="1" t="s">
         <v>920</v>
       </c>
@@ -22088,23 +22332,33 @@
       <c r="BH13" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="BI13" s="1"/>
+      <c r="BI13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ13" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="BK13" s="1"/>
+      <c r="BK13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BL13" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="BM13" s="1"/>
+      <c r="BM13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN13" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="BO13" s="1"/>
+      <c r="BO13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BP13" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="BQ13" s="1"/>
+      <c r="BQ13" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR13" s="1" t="s">
         <v>1771</v>
       </c>
@@ -22847,13 +23101,16 @@
         <v>904</v>
       </c>
     </row>
-    <row r="14" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>2875</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>1857</v>
       </c>
@@ -22863,7 +23120,9 @@
       <c r="F14" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>920</v>
       </c>
@@ -22873,7 +23132,9 @@
       <c r="J14" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L14" s="1" t="s">
         <v>1694</v>
       </c>
@@ -22883,7 +23144,9 @@
       <c r="N14" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>1860</v>
       </c>
@@ -22891,7 +23154,9 @@
       <c r="R14" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="T14" s="1" t="s">
         <v>1861</v>
       </c>
@@ -22907,7 +23172,9 @@
       <c r="X14" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="Z14" s="1" t="s">
         <v>904</v>
       </c>
@@ -22921,7 +23188,9 @@
       <c r="AD14" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="AE14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF14" s="1" t="s">
         <v>1863</v>
       </c>
@@ -22935,15 +23204,21 @@
       <c r="AJ14" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="AK14" s="1"/>
+      <c r="AK14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AL14" s="1" t="s">
         <v>1865</v>
       </c>
-      <c r="AM14" s="1"/>
+      <c r="AM14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AN14" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="AO14" s="1"/>
+      <c r="AO14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP14" s="1" t="s">
         <v>1694</v>
       </c>
@@ -22963,11 +23238,15 @@
       <c r="AV14" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="AW14" s="1"/>
+      <c r="AW14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX14" s="1" t="s">
         <v>1867</v>
       </c>
-      <c r="AY14" s="1"/>
+      <c r="AY14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ14" s="1" t="s">
         <v>1376</v>
       </c>
@@ -22989,7 +23268,9 @@
       <c r="BH14" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI14" s="1"/>
+      <c r="BI14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ14" s="1" t="s">
         <v>1869</v>
       </c>
@@ -22999,7 +23280,9 @@
       <c r="BL14" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="BM14" s="1"/>
+      <c r="BM14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN14" s="1" t="s">
         <v>1665</v>
       </c>
@@ -23007,7 +23290,9 @@
       <c r="BP14" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ14" s="1"/>
+      <c r="BQ14" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR14" s="1" t="s">
         <v>1870</v>
       </c>
@@ -23750,7 +24035,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="15" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -23766,7 +24051,9 @@
       <c r="F15" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>1132</v>
       </c>
@@ -23776,7 +24063,9 @@
       <c r="J15" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>1960</v>
       </c>
@@ -23786,7 +24075,9 @@
       <c r="N15" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>1961</v>
       </c>
@@ -23810,7 +24101,9 @@
       <c r="X15" s="1" t="s">
         <v>1962</v>
       </c>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="Z15" s="1" t="s">
         <v>1530</v>
       </c>
@@ -23824,7 +24117,9 @@
       <c r="AD15" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="AE15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF15" s="1" t="s">
         <v>1963</v>
       </c>
@@ -23856,7 +24151,9 @@
       <c r="AP15" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="AQ15" s="1"/>
+      <c r="AQ15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR15" s="1" t="s">
         <v>1966</v>
       </c>
@@ -23868,11 +24165,15 @@
       <c r="AV15" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AW15" s="1"/>
+      <c r="AW15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX15" s="1" t="s">
         <v>1967</v>
       </c>
-      <c r="AY15" s="1"/>
+      <c r="AY15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ15" s="1" t="s">
         <v>1091</v>
       </c>
@@ -23894,7 +24195,9 @@
       <c r="BH15" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI15" s="1"/>
+      <c r="BI15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ15" s="1" t="s">
         <v>1968</v>
       </c>
@@ -23904,7 +24207,9 @@
       <c r="BL15" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="BM15" s="1"/>
+      <c r="BM15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN15" s="1" t="s">
         <v>1969</v>
       </c>
@@ -23912,7 +24217,9 @@
       <c r="BP15" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ15" s="1"/>
+      <c r="BQ15" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR15" s="1" t="s">
         <v>1970</v>
       </c>
@@ -24655,7 +24962,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="16" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -24681,15 +24988,21 @@
       <c r="J16" s="1" t="s">
         <v>2047</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L16" s="1" t="s">
         <v>1895</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>2048</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>2049</v>
       </c>
@@ -24701,15 +25014,21 @@
       <c r="T16" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V16" s="1" t="s">
         <v>2050</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X16" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="Z16" s="1" t="s">
         <v>1132</v>
       </c>
@@ -24717,7 +25036,9 @@
       <c r="AB16" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD16" s="1" t="s">
         <v>2050</v>
       </c>
@@ -24735,7 +25056,9 @@
       <c r="AJ16" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AK16" s="1"/>
+      <c r="AK16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AL16" s="1" t="s">
         <v>2052</v>
       </c>
@@ -24745,11 +25068,15 @@
       <c r="AN16" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="AO16" s="1"/>
+      <c r="AO16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP16" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="AQ16" s="1"/>
+      <c r="AQ16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR16" s="1" t="s">
         <v>2053</v>
       </c>
@@ -24761,11 +25088,15 @@
       <c r="AV16" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AW16" s="1"/>
+      <c r="AW16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX16" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="AY16" s="1"/>
+      <c r="AY16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ16" s="1" t="s">
         <v>1132</v>
       </c>
@@ -24787,11 +25118,15 @@
       <c r="BH16" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI16" s="1"/>
+      <c r="BI16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ16" s="1" t="s">
         <v>2056</v>
       </c>
-      <c r="BK16" s="1"/>
+      <c r="BK16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BL16" s="1" t="s">
         <v>2057</v>
       </c>
@@ -24805,7 +25140,9 @@
       <c r="BP16" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ16" s="1"/>
+      <c r="BQ16" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR16" s="1" t="s">
         <v>2058</v>
       </c>
@@ -25548,7 +25885,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="17" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -25558,7 +25895,9 @@
       <c r="D17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>2100</v>
       </c>
@@ -25572,7 +25911,9 @@
       <c r="J17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>2071</v>
       </c>
@@ -25580,7 +25921,9 @@
       <c r="N17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>2118</v>
       </c>
@@ -25592,7 +25935,9 @@
       <c r="T17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V17" s="1" t="s">
         <v>1711</v>
       </c>
@@ -25602,7 +25947,9 @@
       <c r="X17" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="Z17" s="1" t="s">
         <v>2119</v>
       </c>
@@ -25610,7 +25957,9 @@
       <c r="AB17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AC17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD17" s="1" t="s">
         <v>1711</v>
       </c>
@@ -25634,7 +25983,9 @@
       <c r="AL17" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AM17" s="1"/>
+      <c r="AM17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AN17" s="1" t="s">
         <v>920</v>
       </c>
@@ -25644,7 +25995,9 @@
       <c r="AP17" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="AQ17" s="1"/>
+      <c r="AQ17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR17" s="1" t="s">
         <v>2121</v>
       </c>
@@ -25656,7 +26009,9 @@
       <c r="AV17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AW17" s="1"/>
+      <c r="AW17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX17" s="1" t="s">
         <v>2122</v>
       </c>
@@ -25704,7 +26059,9 @@
       <c r="BP17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ17" s="1"/>
+      <c r="BQ17" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR17" s="1" t="s">
         <v>2124</v>
       </c>
@@ -26447,7 +26804,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="18" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -26457,7 +26814,9 @@
       <c r="D18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>2137</v>
       </c>
@@ -26471,7 +26830,9 @@
       <c r="J18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L18" s="1" t="s">
         <v>2076</v>
       </c>
@@ -26479,7 +26840,9 @@
       <c r="N18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>2166</v>
       </c>
@@ -26491,11 +26854,15 @@
       <c r="T18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V18" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X18" s="1" t="s">
         <v>1895</v>
       </c>
@@ -26509,11 +26876,15 @@
       <c r="AB18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AC18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD18" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="AE18" s="1"/>
+      <c r="AE18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF18" s="1" t="s">
         <v>2187</v>
       </c>
@@ -26531,7 +26902,9 @@
       <c r="AL18" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="AM18" s="1"/>
+      <c r="AM18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AN18" s="1" t="s">
         <v>2189</v>
       </c>
@@ -26555,11 +26928,15 @@
       <c r="AV18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AW18" s="1"/>
+      <c r="AW18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX18" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="AY18" s="1"/>
+      <c r="AY18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ18" s="1" t="s">
         <v>2193</v>
       </c>
@@ -26589,7 +26966,9 @@
       <c r="BL18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BM18" s="1"/>
+      <c r="BM18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN18" s="1" t="s">
         <v>904</v>
       </c>
@@ -26597,7 +26976,9 @@
       <c r="BP18" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ18" s="1"/>
+      <c r="BQ18" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR18" s="1" t="s">
         <v>2195</v>
       </c>
@@ -27340,7 +27721,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="19" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -27366,7 +27747,9 @@
       <c r="J19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L19" s="1" t="s">
         <v>2248</v>
       </c>
@@ -27374,7 +27757,9 @@
       <c r="N19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P19" s="1" t="s">
         <v>2249</v>
       </c>
@@ -27386,11 +27771,15 @@
       <c r="T19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="V19" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X19" s="1" t="s">
         <v>2071</v>
       </c>
@@ -27404,11 +27793,15 @@
       <c r="AB19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AC19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AD19" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="AE19" s="1"/>
+      <c r="AE19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF19" s="1" t="s">
         <v>2250</v>
       </c>
@@ -27420,7 +27813,9 @@
       <c r="AJ19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AK19" s="1"/>
+      <c r="AK19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AL19" s="1" t="s">
         <v>904</v>
       </c>
@@ -27430,11 +27825,15 @@
       <c r="AN19" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="AO19" s="1"/>
+      <c r="AO19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP19" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="AQ19" s="1"/>
+      <c r="AQ19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR19" s="1" t="s">
         <v>2251</v>
       </c>
@@ -27446,11 +27845,15 @@
       <c r="AV19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AW19" s="1"/>
+      <c r="AW19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX19" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="AY19" s="1"/>
+      <c r="AY19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ19" s="1" t="s">
         <v>1561</v>
       </c>
@@ -27480,7 +27883,9 @@
       <c r="BL19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BM19" s="1"/>
+      <c r="BM19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN19" s="1" t="s">
         <v>2253</v>
       </c>
@@ -27488,7 +27893,9 @@
       <c r="BP19" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ19" s="1"/>
+      <c r="BQ19" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR19" s="1" t="s">
         <v>2254</v>
       </c>
@@ -28231,7 +28638,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="20" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -28257,7 +28664,9 @@
       <c r="J20" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L20" s="1" t="s">
         <v>2314</v>
       </c>
@@ -28283,7 +28692,9 @@
       <c r="V20" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X20" s="1" t="s">
         <v>2076</v>
       </c>
@@ -28315,7 +28726,9 @@
       <c r="AJ20" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AK20" s="1"/>
+      <c r="AK20" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AL20" s="1" t="s">
         <v>1132</v>
       </c>
@@ -28331,7 +28744,9 @@
       <c r="AP20" s="1" t="s">
         <v>2316</v>
       </c>
-      <c r="AQ20" s="1"/>
+      <c r="AQ20" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR20" s="1" t="s">
         <v>2317</v>
       </c>
@@ -28391,7 +28806,9 @@
       <c r="BP20" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ20" s="1"/>
+      <c r="BQ20" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR20" s="1" t="s">
         <v>2318</v>
       </c>
@@ -29134,7 +29551,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="21" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -29150,7 +29567,9 @@
       <c r="F21" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>1819</v>
       </c>
@@ -29158,7 +29577,9 @@
       <c r="J21" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L21" s="1" t="s">
         <v>1971</v>
       </c>
@@ -29166,7 +29587,9 @@
       <c r="N21" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P21" s="1" t="s">
         <v>2365</v>
       </c>
@@ -29182,7 +29605,9 @@
       <c r="V21" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X21" s="1" t="s">
         <v>2248</v>
       </c>
@@ -29226,11 +29651,15 @@
       <c r="AN21" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="AO21" s="1"/>
+      <c r="AO21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP21" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="AQ21" s="1"/>
+      <c r="AQ21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR21" s="1" t="s">
         <v>2370</v>
       </c>
@@ -29248,7 +29677,9 @@
       <c r="AX21" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="AY21" s="1"/>
+      <c r="AY21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ21" s="1" t="s">
         <v>1458</v>
       </c>
@@ -29268,7 +29699,9 @@
       <c r="BH21" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI21" s="1"/>
+      <c r="BI21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ21" s="1" t="s">
         <v>1246</v>
       </c>
@@ -29276,7 +29709,9 @@
       <c r="BL21" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BM21" s="1"/>
+      <c r="BM21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BN21" s="1" t="s">
         <v>1376</v>
       </c>
@@ -29284,7 +29719,9 @@
       <c r="BP21" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ21" s="1"/>
+      <c r="BQ21" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR21" s="1" t="s">
         <v>2372</v>
       </c>
@@ -30027,7 +30464,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="22" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -30043,7 +30480,9 @@
       <c r="F22" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>1545</v>
       </c>
@@ -30079,11 +30518,15 @@
       <c r="V22" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X22" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="Z22" s="1" t="s">
         <v>1591</v>
       </c>
@@ -30095,7 +30538,9 @@
       <c r="AD22" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AE22" s="1"/>
+      <c r="AE22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF22" s="1" t="s">
         <v>904</v>
       </c>
@@ -30107,7 +30552,9 @@
       <c r="AJ22" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AK22" s="1"/>
+      <c r="AK22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AL22" s="1" t="s">
         <v>1416</v>
       </c>
@@ -30123,7 +30570,9 @@
       <c r="AP22" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="AQ22" s="1"/>
+      <c r="AQ22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR22" s="1" t="s">
         <v>2419</v>
       </c>
@@ -30135,11 +30584,15 @@
       <c r="AV22" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AW22" s="1"/>
+      <c r="AW22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX22" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="AY22" s="1"/>
+      <c r="AY22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ22" s="1" t="s">
         <v>1819</v>
       </c>
@@ -30159,7 +30612,9 @@
       <c r="BH22" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI22" s="1"/>
+      <c r="BI22" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ22" s="1" t="s">
         <v>1402</v>
       </c>
@@ -30175,7 +30630,9 @@
       <c r="BP22" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ22" s="1"/>
+      <c r="BQ22" s="1" t="s">
+        <v>2840</v>
+      </c>
       <c r="BR22" s="1" t="s">
         <v>555</v>
       </c>
@@ -30918,7 +31375,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="23" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -30934,7 +31391,9 @@
       <c r="F23" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>2460</v>
       </c>
@@ -30942,7 +31401,9 @@
       <c r="J23" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L23" s="1" t="s">
         <v>2331</v>
       </c>
@@ -30968,7 +31429,9 @@
       <c r="V23" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X23" s="1" t="s">
         <v>1971</v>
       </c>
@@ -30984,7 +31447,9 @@
       <c r="AD23" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AE23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF23" s="1" t="s">
         <v>1132</v>
       </c>
@@ -31002,7 +31467,9 @@
       <c r="AL23" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="AM23" s="1"/>
+      <c r="AM23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AN23" s="1" t="s">
         <v>2235</v>
       </c>
@@ -31012,7 +31479,9 @@
       <c r="AP23" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="AQ23" s="1"/>
+      <c r="AQ23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR23" s="1" t="s">
         <v>2462</v>
       </c>
@@ -31024,11 +31493,15 @@
       <c r="AV23" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AW23" s="1"/>
+      <c r="AW23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AX23" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="AY23" s="1"/>
+      <c r="AY23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AZ23" s="1" t="s">
         <v>1593</v>
       </c>
@@ -31048,7 +31521,9 @@
       <c r="BH23" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI23" s="1"/>
+      <c r="BI23" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ23" s="1" t="s">
         <v>1540</v>
       </c>
@@ -31064,7 +31539,9 @@
       <c r="BP23" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ23" s="1"/>
+      <c r="BQ23" s="1" t="s">
+        <v>2841</v>
+      </c>
       <c r="BR23" s="1" t="s">
         <v>2464</v>
       </c>
@@ -31807,7 +32284,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="24" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -31841,7 +32318,9 @@
       <c r="N24" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P24" s="1" t="s">
         <v>904</v>
       </c>
@@ -31889,19 +32368,27 @@
       <c r="AJ24" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AK24" s="1"/>
+      <c r="AK24" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AL24" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="AM24" s="1"/>
+      <c r="AM24" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AN24" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="AO24" s="1"/>
+      <c r="AO24" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP24" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="AQ24" s="1"/>
+      <c r="AQ24" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR24" s="1" t="s">
         <v>2515</v>
       </c>
@@ -31939,7 +32426,9 @@
       <c r="BH24" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI24" s="1"/>
+      <c r="BI24" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ24" s="1" t="s">
         <v>1663</v>
       </c>
@@ -31955,7 +32444,9 @@
       <c r="BP24" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ24" s="1"/>
+      <c r="BQ24" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR24" s="1" t="s">
         <v>904</v>
       </c>
@@ -32698,7 +33189,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="25" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -32708,7 +33199,9 @@
       <c r="D25" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>904</v>
       </c>
@@ -32720,7 +33213,9 @@
       <c r="J25" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L25" s="1" t="s">
         <v>2196</v>
       </c>
@@ -32746,7 +33241,9 @@
       <c r="V25" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X25" s="1" t="s">
         <v>2331</v>
       </c>
@@ -32762,7 +33259,9 @@
       <c r="AD25" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AE25" s="1"/>
+      <c r="AE25" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF25" s="1" t="s">
         <v>1416</v>
       </c>
@@ -32782,7 +33281,9 @@
       <c r="AN25" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AO25" s="1"/>
+      <c r="AO25" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP25" s="1" t="s">
         <v>2516</v>
       </c>
@@ -32824,7 +33325,9 @@
       <c r="BH25" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI25" s="1"/>
+      <c r="BI25" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ25" s="1" t="s">
         <v>1770</v>
       </c>
@@ -33585,7 +34088,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="26" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -33595,7 +34098,9 @@
       <c r="D26" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>1132</v>
       </c>
@@ -33675,7 +34180,9 @@
       <c r="AN26" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AO26" s="1"/>
+      <c r="AO26" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP26" s="1" t="s">
         <v>2593</v>
       </c>
@@ -33717,7 +34224,9 @@
       <c r="BH26" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI26" s="1"/>
+      <c r="BI26" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ26" s="1" t="s">
         <v>1869</v>
       </c>
@@ -34478,7 +34987,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="27" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -34502,7 +35011,9 @@
       <c r="J27" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L27" s="1" t="s">
         <v>2606</v>
       </c>
@@ -34510,7 +35021,9 @@
       <c r="N27" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P27" s="1" t="s">
         <v>1458</v>
       </c>
@@ -34526,7 +35039,9 @@
       <c r="V27" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X27" s="1" t="s">
         <v>2196</v>
       </c>
@@ -34542,7 +35057,9 @@
       <c r="AD27" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AF27" s="1" t="s">
         <v>1819</v>
       </c>
@@ -34568,7 +35085,9 @@
       <c r="AP27" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="AQ27" s="1"/>
+      <c r="AQ27" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR27" s="1" t="s">
         <v>895</v>
       </c>
@@ -34604,7 +35123,9 @@
       <c r="BH27" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI27" s="1"/>
+      <c r="BI27" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ27" s="1" t="s">
         <v>1968</v>
       </c>
@@ -35365,7 +35886,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="28" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -35389,7 +35910,9 @@
       <c r="J28" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>2662</v>
       </c>
@@ -35515,7 +36038,9 @@
       <c r="BP28" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BQ28" s="1"/>
+      <c r="BQ28" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BR28" s="1" t="s">
         <v>1593</v>
       </c>
@@ -36258,7 +36783,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="29" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -36268,7 +36793,9 @@
       <c r="D29" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>1621</v>
       </c>
@@ -36280,7 +36807,9 @@
       <c r="J29" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L29" s="1" t="s">
         <v>2692</v>
       </c>
@@ -36288,7 +36817,9 @@
       <c r="N29" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="P29" s="1" t="s">
         <v>1819</v>
       </c>
@@ -36304,7 +36835,9 @@
       <c r="V29" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W29" s="1"/>
+      <c r="W29" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X29" s="1" t="s">
         <v>2606</v>
       </c>
@@ -36346,7 +36879,9 @@
       <c r="AP29" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="AQ29" s="1"/>
+      <c r="AQ29" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR29" s="1" t="s">
         <v>920</v>
       </c>
@@ -37143,7 +37678,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="30" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -37167,7 +37702,9 @@
       <c r="J30" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L30" s="1" t="s">
         <v>2386</v>
       </c>
@@ -37191,7 +37728,9 @@
       <c r="V30" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W30" s="1"/>
+      <c r="W30" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X30" s="1" t="s">
         <v>2662</v>
       </c>
@@ -37227,11 +37766,15 @@
       <c r="AN30" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AO30" s="1"/>
+      <c r="AO30" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AP30" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="AQ30" s="1"/>
+      <c r="AQ30" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR30" s="1" t="s">
         <v>1433</v>
       </c>
@@ -38028,7 +38571,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -38038,7 +38581,9 @@
       <c r="D31" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>1458</v>
       </c>
@@ -38050,7 +38595,9 @@
       <c r="J31" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L31" s="1" t="s">
         <v>2432</v>
       </c>
@@ -38074,7 +38621,9 @@
       <c r="V31" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W31" s="1"/>
+      <c r="W31" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X31" s="1" t="s">
         <v>2692</v>
       </c>
@@ -38116,7 +38665,9 @@
       <c r="AP31" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="AQ31" s="1"/>
+      <c r="AQ31" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR31" s="1" t="s">
         <v>1530</v>
       </c>
@@ -38152,7 +38703,9 @@
       <c r="BH31" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="BI31" s="1"/>
+      <c r="BI31" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="BJ31" s="1" t="s">
         <v>920</v>
       </c>
@@ -38911,7 +39464,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="32" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -38921,7 +39474,9 @@
       <c r="D32" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>1819</v>
       </c>
@@ -38933,7 +39488,9 @@
       <c r="J32" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L32" s="1" t="s">
         <v>2530</v>
       </c>
@@ -38957,7 +39514,9 @@
       <c r="V32" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W32" s="1"/>
+      <c r="W32" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X32" s="1" t="s">
         <v>2386</v>
       </c>
@@ -38999,7 +39558,9 @@
       <c r="AP32" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="AQ32" s="1"/>
+      <c r="AQ32" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR32" s="1" t="s">
         <v>2004</v>
       </c>
@@ -39796,7 +40357,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="33" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -39806,7 +40367,9 @@
       <c r="D33" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>1593</v>
       </c>
@@ -39818,7 +40381,9 @@
       <c r="J33" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L33" s="1" t="s">
         <v>2465</v>
       </c>
@@ -39842,7 +40407,9 @@
       <c r="V33" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W33" s="1"/>
+      <c r="W33" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X33" s="1" t="s">
         <v>2432</v>
       </c>
@@ -39878,11 +40445,15 @@
       <c r="AN33" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AO33" s="1"/>
+      <c r="AO33" s="1" t="s">
+        <v>2840</v>
+      </c>
       <c r="AP33" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="AQ33" s="1"/>
+      <c r="AQ33" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="AR33" s="1" t="s">
         <v>1132</v>
       </c>
@@ -40679,7 +41250,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="34" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -40701,7 +41272,9 @@
       <c r="J34" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L34" s="1" t="s">
         <v>2728</v>
       </c>
@@ -40725,7 +41298,9 @@
       <c r="V34" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X34" s="1" t="s">
         <v>2530</v>
       </c>
@@ -41562,7 +42137,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="35" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -41584,7 +42159,9 @@
       <c r="J35" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="L35" s="1" t="s">
         <v>2750</v>
       </c>
@@ -41608,7 +42185,9 @@
       <c r="V35" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="W35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="X35" s="1" t="s">
         <v>2728</v>
       </c>
@@ -42460,7 +43039,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/category1_data-clean-utf8.xlsx
+++ b/Data/category1_data-clean-utf8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\ProductGraph\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6743EAD8-B5CC-4DDE-B020-53288ADFF936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9683B4-2E38-4CDF-ABE6-FA9E755C405B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10581,7 +10581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDECD1A5-1D11-47A1-BBFF-FD91137070BA}">
   <dimension ref="A1:LD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BX4" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
